--- a/Bulk Loads/1523/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/1523/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -1998,8 +1998,10 @@
       <c r="N63" t="n">
         <v>1200</v>
       </c>
-      <c r="O63" t="n">
-        <v>1020</v>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -2037,8 +2039,10 @@
       <c r="N64" t="n">
         <v>2956</v>
       </c>
-      <c r="O64" t="n">
-        <v>2217</v>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>739</t>
+        </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>

--- a/Bulk Loads/1523/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/1523/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -507,7 +507,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 01, 2024</t>
+          <t>August 05, 2024</t>
         </is>
       </c>
     </row>
@@ -1998,10 +1998,8 @@
       <c r="N63" t="n">
         <v>1200</v>
       </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>510</t>
-        </is>
+      <c r="O63" t="n">
+        <v>1020</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -2039,10 +2037,8 @@
       <c r="N64" t="n">
         <v>2956</v>
       </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>739</t>
-        </is>
+      <c r="O64" t="n">
+        <v>2217</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>

--- a/Bulk Loads/1523/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/1523/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -507,7 +507,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 05, 2024</t>
+          <t>August 06, 2024</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="E114" t="n">
         <v>1</v>

--- a/Bulk Loads/1523/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/1523/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -69,12 +69,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -507,7 +513,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 06, 2024</t>
+          <t>August 29, 2024</t>
         </is>
       </c>
     </row>
@@ -638,10 +644,10 @@
       <c r="S8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="A9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -649,8 +655,8 @@
           <t>DRY STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="6" t="n"/>
+      <c r="F9" s="7" t="n"/>
+      <c r="G9" s="8" t="n"/>
       <c r="S9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
@@ -658,10 +664,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -669,8 +675,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="6" t="n"/>
+      <c r="F10" s="7" t="n"/>
+      <c r="G10" s="8" t="n"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -696,10 +702,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -709,14 +715,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="6" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -724,8 +730,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="6" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="8" t="n"/>
       <c r="S12" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -733,10 +739,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -746,14 +752,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="6" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -761,8 +767,8 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="6" t="n"/>
+      <c r="F14" s="7" t="n"/>
+      <c r="G14" s="8" t="n"/>
       <c r="S14" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -770,10 +776,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
@@ -781,8 +787,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="6" t="n"/>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="8" t="n"/>
       <c r="S15" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -790,10 +796,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -807,10 +813,10 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="8">
         <f>IF(E16&gt;1,(1.732*D16*F16)/1000,(D16*F16)/1000)</f>
         <v/>
       </c>
@@ -839,10 +845,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -852,14 +858,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="6" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="8" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -869,8 +875,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="6" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -898,10 +904,10 @@
       <c r="S19" s="4" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
@@ -915,10 +921,10 @@
       <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="8">
         <f>IF(E20&gt;1,(1.732*D20*F20)/1000,(D20*F20)/1000)</f>
         <v/>
       </c>
@@ -929,10 +935,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -946,10 +952,10 @@
       <c r="E21" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="8">
         <f>IF(E21&gt;1,(1.732*D21*F21)/1000,(D21*F21)/1000)</f>
         <v/>
       </c>
@@ -960,10 +966,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -971,8 +977,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="6" t="n"/>
+      <c r="F22" s="7" t="n"/>
+      <c r="G22" s="8" t="n"/>
       <c r="S22" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #26</t>
@@ -980,10 +986,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -997,10 +1003,10 @@
       <c r="E23" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="8">
         <f>IF(E23&gt;1,(1.732*D23*F23)/1000,(D23*F23)/1000)</f>
         <v/>
       </c>
@@ -1016,10 +1022,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1029,14 +1035,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="6" t="n"/>
+      <c r="F24" s="7" t="n"/>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1050,19 +1056,19 @@
       <c r="E25" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="7" t="n">
         <v>0.4</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="8">
         <f>IF(E25&gt;1,(1.732*D25*F25)/1000,(D25*F25)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -1070,8 +1076,8 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F26" s="5" t="n"/>
-      <c r="G26" s="6" t="n"/>
+      <c r="F26" s="7" t="n"/>
+      <c r="G26" s="8" t="n"/>
       <c r="S26" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -1079,10 +1085,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -1096,19 +1102,19 @@
       <c r="E27" t="n">
         <v>1</v>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="8">
         <f>IF(E27&gt;1,(1.732*D27*F27)/1000,(D27*F27)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1118,14 +1124,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F28" s="5" t="n"/>
-      <c r="G28" s="6" t="n"/>
+      <c r="F28" s="7" t="n"/>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1135,14 +1141,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F29" s="5" t="n"/>
-      <c r="G29" s="6" t="n"/>
+      <c r="F29" s="7" t="n"/>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
@@ -1156,19 +1162,19 @@
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="8">
         <f>IF(E30&gt;1,(1.732*D30*F30)/1000,(D30*F30)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
@@ -1176,8 +1182,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F31" s="5" t="n"/>
-      <c r="G31" s="6" t="n"/>
+      <c r="F31" s="7" t="n"/>
+      <c r="G31" s="8" t="n"/>
       <c r="S31" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #26</t>
@@ -1185,10 +1191,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1196,8 +1202,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F32" s="5" t="n"/>
-      <c r="G32" s="6" t="n"/>
+      <c r="F32" s="7" t="n"/>
+      <c r="G32" s="8" t="n"/>
       <c r="S32" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -1205,10 +1211,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1216,8 +1222,8 @@
           <t>DROP-IN HAND SINK</t>
         </is>
       </c>
-      <c r="F33" s="5" t="n"/>
-      <c r="G33" s="6" t="n"/>
+      <c r="F33" s="7" t="n"/>
+      <c r="G33" s="8" t="n"/>
       <c r="H33" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -1243,10 +1249,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1256,14 +1262,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F34" s="5" t="n"/>
-      <c r="G34" s="6" t="n"/>
+      <c r="F34" s="7" t="n"/>
+      <c r="G34" s="8" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -1277,10 +1283,10 @@
       <c r="E35" t="n">
         <v>1</v>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="8">
         <f>IF(E35&gt;1,(1.732*D35*F35)/1000,(D35*F35)/1000)</f>
         <v/>
       </c>
@@ -1309,10 +1315,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1326,19 +1332,19 @@
       <c r="E36" t="n">
         <v>1</v>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="8">
         <f>IF(E36&gt;1,(1.732*D36*F36)/1000,(D36*F36)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1346,8 +1352,8 @@
           <t>FLOOR TROUGH &amp; GRATE</t>
         </is>
       </c>
-      <c r="F37" s="5" t="n"/>
-      <c r="G37" s="6" t="n"/>
+      <c r="F37" s="7" t="n"/>
+      <c r="G37" s="8" t="n"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>2"</t>
@@ -1360,10 +1366,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1373,14 +1379,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F38" s="5" t="n"/>
-      <c r="G38" s="6" t="n"/>
+      <c r="F38" s="7" t="n"/>
+      <c r="G38" s="8" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1390,14 +1396,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F39" s="5" t="n"/>
-      <c r="G39" s="6" t="n"/>
+      <c r="F39" s="7" t="n"/>
+      <c r="G39" s="8" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -1405,8 +1411,8 @@
           <t>COOLER STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F40" s="5" t="n"/>
-      <c r="G40" s="6" t="n"/>
+      <c r="F40" s="7" t="n"/>
+      <c r="G40" s="8" t="n"/>
       <c r="S40" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -1414,10 +1420,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -1431,10 +1437,10 @@
       <c r="E41" t="n">
         <v>1</v>
       </c>
-      <c r="F41" s="5" t="n">
+      <c r="F41" s="7" t="n">
         <v>0.9</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="8">
         <f>IF(E41&gt;1,(1.732*D41*F41)/1000,(D41*F41)/1000)</f>
         <v/>
       </c>
@@ -1450,10 +1456,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -1467,10 +1473,10 @@
       <c r="E42" t="n">
         <v>3</v>
       </c>
-      <c r="F42" s="5" t="n">
+      <c r="F42" s="7" t="n">
         <v>4.7</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="8">
         <f>IF(E42&gt;1,(1.732*D42*F42)/1000,(D42*F42)/1000)</f>
         <v/>
       </c>
@@ -1494,10 +1500,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1507,16 +1513,16 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F43" s="5" t="n"/>
-      <c r="G43" s="6" t="n"/>
+      <c r="F43" s="7" t="n"/>
+      <c r="G43" s="8" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>35- 40</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1526,8 +1532,8 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F44" s="5" t="n"/>
-      <c r="G44" s="6" t="n"/>
+      <c r="F44" s="7" t="n"/>
+      <c r="G44" s="8" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
@@ -1555,10 +1561,10 @@
       <c r="S45" s="4" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -1572,10 +1578,10 @@
       <c r="E46" t="n">
         <v>1</v>
       </c>
-      <c r="F46" s="5" t="n">
+      <c r="F46" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="8">
         <f>IF(E46&gt;1,(1.732*D46*F46)/1000,(D46*F46)/1000)</f>
         <v/>
       </c>
@@ -1586,10 +1592,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -1597,8 +1603,8 @@
           <t>DROP-IN HAND SINK</t>
         </is>
       </c>
-      <c r="F47" s="5" t="n"/>
-      <c r="G47" s="6" t="n"/>
+      <c r="F47" s="7" t="n"/>
+      <c r="G47" s="8" t="n"/>
       <c r="H47" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -1624,10 +1630,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -1635,8 +1641,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F48" s="5" t="n"/>
-      <c r="G48" s="6" t="n"/>
+      <c r="F48" s="7" t="n"/>
+      <c r="G48" s="8" t="n"/>
       <c r="S48" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -1644,10 +1650,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -1655,8 +1661,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F49" s="5" t="n"/>
-      <c r="G49" s="6" t="n"/>
+      <c r="F49" s="7" t="n"/>
+      <c r="G49" s="8" t="n"/>
       <c r="S49" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #41</t>
@@ -1664,10 +1670,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1677,14 +1683,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F50" s="5" t="n"/>
-      <c r="G50" s="6" t="n"/>
+      <c r="F50" s="7" t="n"/>
+      <c r="G50" s="8" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -1698,19 +1704,19 @@
       <c r="E51" t="n">
         <v>1</v>
       </c>
-      <c r="F51" s="5" t="n">
+      <c r="F51" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="8">
         <f>IF(E51&gt;1,(1.732*D51*F51)/1000,(D51*F51)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -1724,19 +1730,19 @@
       <c r="E52" t="n">
         <v>1</v>
       </c>
-      <c r="F52" s="5" t="n">
+      <c r="F52" s="7" t="n">
         <v>5.4</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="8">
         <f>IF(E52&gt;1,(1.732*D52*F52)/1000,(D52*F52)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -1750,19 +1756,19 @@
       <c r="E53" t="n">
         <v>1</v>
       </c>
-      <c r="F53" s="5" t="n">
+      <c r="F53" s="7" t="n">
         <v>7.9</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="8">
         <f>IF(E53&gt;1,(1.732*D53*F53)/1000,(D53*F53)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1772,14 +1778,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F54" s="5" t="n"/>
-      <c r="G54" s="6" t="n"/>
+      <c r="F54" s="7" t="n"/>
+      <c r="G54" s="8" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1789,14 +1795,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F55" s="5" t="n"/>
-      <c r="G55" s="6" t="n"/>
+      <c r="F55" s="7" t="n"/>
+      <c r="G55" s="8" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -1810,10 +1816,10 @@
       <c r="E56" t="n">
         <v>1</v>
       </c>
-      <c r="F56" s="5" t="n">
+      <c r="F56" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="8">
         <f>IF(E56&gt;1,(1.732*D56*F56)/1000,(D56*F56)/1000)</f>
         <v/>
       </c>
@@ -1829,10 +1835,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -1840,8 +1846,8 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F57" s="5" t="n"/>
-      <c r="G57" s="6" t="n"/>
+      <c r="F57" s="7" t="n"/>
+      <c r="G57" s="8" t="n"/>
       <c r="S57" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -1849,10 +1855,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
@@ -1860,8 +1866,8 @@
           <t>MARBLE TOP</t>
         </is>
       </c>
-      <c r="F58" s="5" t="n"/>
-      <c r="G58" s="6" t="n"/>
+      <c r="F58" s="7" t="n"/>
+      <c r="G58" s="8" t="n"/>
       <c r="S58" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #41</t>
@@ -1869,10 +1875,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1882,16 +1888,16 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F59" s="5" t="n"/>
-      <c r="G59" s="6" t="n"/>
+      <c r="F59" s="7" t="n"/>
+      <c r="G59" s="8" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="5" t="inlineStr">
         <is>
           <t>55- 60</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1901,8 +1907,8 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F60" s="5" t="n"/>
-      <c r="G60" s="6" t="n"/>
+      <c r="F60" s="7" t="n"/>
+      <c r="G60" s="8" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
@@ -1930,12 +1936,12 @@
       <c r="S61" s="4" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="5" t="inlineStr">
         <is>
           <t>61L</t>
         </is>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -1949,10 +1955,10 @@
       <c r="E62" t="n">
         <v>1</v>
       </c>
-      <c r="F62" s="5" t="n">
+      <c r="F62" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="8">
         <f>IF(E62&gt;1,(1.732*D62*F62)/1000,(D62*F62)/1000)</f>
         <v/>
       </c>
@@ -1969,12 +1975,12 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="5" t="inlineStr">
         <is>
           <t>61M</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
@@ -1988,10 +1994,10 @@
       <c r="E63" t="n">
         <v>1</v>
       </c>
-      <c r="F63" s="5" t="n">
+      <c r="F63" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="8">
         <f>IF(E63&gt;1,(1.732*D63*F63)/1000,(D63*F63)/1000)</f>
         <v/>
       </c>
@@ -2008,12 +2014,12 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="5" t="inlineStr">
         <is>
           <t>61R</t>
         </is>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2027,10 +2033,10 @@
       <c r="E64" t="n">
         <v>1</v>
       </c>
-      <c r="F64" s="5" t="n">
+      <c r="F64" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="8">
         <f>IF(E64&gt;1,(1.732*D64*F64)/1000,(D64*F64)/1000)</f>
         <v/>
       </c>
@@ -2047,10 +2053,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -2058,14 +2064,14 @@
           <t>SPREADER</t>
         </is>
       </c>
-      <c r="F65" s="5" t="n"/>
-      <c r="G65" s="6" t="n"/>
+      <c r="F65" s="7" t="n"/>
+      <c r="G65" s="8" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -2073,17 +2079,17 @@
           <t>TEMPURA FRYER</t>
         </is>
       </c>
-      <c r="F66" s="5" t="n"/>
-      <c r="G66" s="6" t="n"/>
+      <c r="F66" s="7" t="n"/>
+      <c r="G66" s="8" t="n"/>
       <c r="M66" t="n">
         <v>122000</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -2091,14 +2097,14 @@
           <t>SPREADER</t>
         </is>
       </c>
-      <c r="F67" s="5" t="n"/>
-      <c r="G67" s="6" t="n"/>
+      <c r="F67" s="7" t="n"/>
+      <c r="G67" s="8" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="5" t="n">
         <v>65</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2108,14 +2114,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F68" s="5" t="n"/>
-      <c r="G68" s="6" t="n"/>
+      <c r="F68" s="7" t="n"/>
+      <c r="G68" s="8" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -2123,17 +2129,17 @@
           <t>MODULAR CHARBROILER</t>
         </is>
       </c>
-      <c r="F69" s="5" t="n"/>
-      <c r="G69" s="6" t="n"/>
+      <c r="F69" s="7" t="n"/>
+      <c r="G69" s="8" t="n"/>
       <c r="M69" t="n">
         <v>90000</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="5" t="n">
         <v>67</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
@@ -2147,10 +2153,10 @@
       <c r="E70" t="n">
         <v>1</v>
       </c>
-      <c r="F70" s="5" t="n">
+      <c r="F70" s="7" t="n">
         <v>12.6</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G70" s="8">
         <f>IF(E70&gt;1,(1.732*D70*F70)/1000,(D70*F70)/1000)</f>
         <v/>
       </c>
@@ -2161,10 +2167,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="5" t="n">
         <v>68</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -2172,8 +2178,8 @@
           <t>TUBULAR WALL SHELF</t>
         </is>
       </c>
-      <c r="F71" s="5" t="n"/>
-      <c r="G71" s="6" t="n"/>
+      <c r="F71" s="7" t="n"/>
+      <c r="G71" s="8" t="n"/>
       <c r="S71" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -2181,10 +2187,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" s="5" t="n">
         <v>69</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2194,14 +2200,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F72" s="5" t="n"/>
-      <c r="G72" s="6" t="n"/>
+      <c r="F72" s="7" t="n"/>
+      <c r="G72" s="8" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="5" t="n">
         <v>70</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2211,14 +2217,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F73" s="5" t="n"/>
-      <c r="G73" s="6" t="n"/>
+      <c r="F73" s="7" t="n"/>
+      <c r="G73" s="8" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -2226,17 +2232,17 @@
           <t>MODULAR GRIDDLE</t>
         </is>
       </c>
-      <c r="F74" s="5" t="n"/>
-      <c r="G74" s="6" t="n"/>
+      <c r="F74" s="7" t="n"/>
+      <c r="G74" s="8" t="n"/>
       <c r="M74" t="n">
         <v>60000</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="5" t="n">
         <v>72</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C75" t="inlineStr">
@@ -2244,17 +2250,17 @@
           <t>SALAMANDER</t>
         </is>
       </c>
-      <c r="F75" s="5" t="n"/>
-      <c r="G75" s="6" t="n"/>
+      <c r="F75" s="7" t="n"/>
+      <c r="G75" s="8" t="n"/>
       <c r="M75" t="n">
         <v>35000</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="inlineStr">
@@ -2262,8 +2268,8 @@
           <t>FILL FAUCET</t>
         </is>
       </c>
-      <c r="F76" s="5" t="n"/>
-      <c r="G76" s="6" t="n"/>
+      <c r="F76" s="7" t="n"/>
+      <c r="G76" s="8" t="n"/>
       <c r="H76" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2279,10 +2285,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="5" t="n">
         <v>74</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -2296,10 +2302,10 @@
       <c r="E77" t="n">
         <v>1</v>
       </c>
-      <c r="F77" s="5" t="n">
+      <c r="F77" s="7" t="n">
         <v>12.6</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G77" s="8">
         <f>IF(E77&gt;1,(1.732*D77*F77)/1000,(D77*F77)/1000)</f>
         <v/>
       </c>
@@ -2310,10 +2316,10 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="5" t="n">
         <v>75</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2323,14 +2329,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F78" s="5" t="n"/>
-      <c r="G78" s="6" t="n"/>
+      <c r="F78" s="7" t="n"/>
+      <c r="G78" s="8" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="5" t="n">
         <v>76</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -2338,17 +2344,17 @@
           <t>MODULAR SIX BURNER RANGE</t>
         </is>
       </c>
-      <c r="F79" s="5" t="n"/>
-      <c r="G79" s="6" t="n"/>
+      <c r="F79" s="7" t="n"/>
+      <c r="G79" s="8" t="n"/>
       <c r="M79" t="n">
         <v>210000</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="5" t="n">
         <v>77</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -2362,10 +2368,10 @@
       <c r="E80" t="n">
         <v>1</v>
       </c>
-      <c r="F80" s="5" t="n">
+      <c r="F80" s="7" t="n">
         <v>7.5</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G80" s="8">
         <f>IF(E80&gt;1,(1.732*D80*F80)/1000,(D80*F80)/1000)</f>
         <v/>
       </c>
@@ -2389,10 +2395,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="5" t="n">
         <v>78</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -2400,8 +2406,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F81" s="5" t="n"/>
-      <c r="G81" s="6" t="n"/>
+      <c r="F81" s="7" t="n"/>
+      <c r="G81" s="8" t="n"/>
       <c r="H81" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2427,10 +2433,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="5" t="n">
         <v>79</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2440,14 +2446,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F82" s="5" t="n"/>
-      <c r="G82" s="6" t="n"/>
+      <c r="F82" s="7" t="n"/>
+      <c r="G82" s="8" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="5" t="n">
         <v>80</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2457,14 +2463,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F83" s="5" t="n"/>
-      <c r="G83" s="6" t="n"/>
+      <c r="F83" s="7" t="n"/>
+      <c r="G83" s="8" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="5" t="n">
         <v>81</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -2472,8 +2478,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F84" s="5" t="n"/>
-      <c r="G84" s="6" t="n"/>
+      <c r="F84" s="7" t="n"/>
+      <c r="G84" s="8" t="n"/>
       <c r="S84" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -2481,10 +2487,10 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="5" t="n">
         <v>82</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -2498,10 +2504,10 @@
       <c r="E85" t="n">
         <v>1</v>
       </c>
-      <c r="F85" s="5" t="n">
+      <c r="F85" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G85" s="8">
         <f>IF(E85&gt;1,(1.732*D85*F85)/1000,(D85*F85)/1000)</f>
         <v/>
       </c>
@@ -2512,10 +2518,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="5" t="n">
         <v>83</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -2529,10 +2535,10 @@
       <c r="E86" t="n">
         <v>1</v>
       </c>
-      <c r="F86" s="5" t="n">
+      <c r="F86" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G86" s="8">
         <f>IF(E86&gt;1,(1.732*D86*F86)/1000,(D86*F86)/1000)</f>
         <v/>
       </c>
@@ -2543,10 +2549,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" s="5" t="n">
         <v>84</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
@@ -2560,10 +2566,10 @@
       <c r="E87" t="n">
         <v>1</v>
       </c>
-      <c r="F87" s="5" t="n">
+      <c r="F87" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G87" s="8">
         <f>IF(E87&gt;1,(1.732*D87*F87)/1000,(D87*F87)/1000)</f>
         <v/>
       </c>
@@ -2579,10 +2585,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="5" t="n">
         <v>85</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2592,14 +2598,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F88" s="5" t="n"/>
-      <c r="G88" s="6" t="n"/>
+      <c r="F88" s="7" t="n"/>
+      <c r="G88" s="8" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="5" t="n">
         <v>86</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -2613,10 +2619,10 @@
       <c r="E89" t="n">
         <v>1</v>
       </c>
-      <c r="F89" s="5" t="n">
+      <c r="F89" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G89" s="8">
         <f>IF(E89&gt;1,(1.732*D89*F89)/1000,(D89*F89)/1000)</f>
         <v/>
       </c>
@@ -2632,10 +2638,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="5" t="n">
         <v>87</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -2643,8 +2649,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F90" s="5" t="n"/>
-      <c r="G90" s="6" t="n"/>
+      <c r="F90" s="7" t="n"/>
+      <c r="G90" s="8" t="n"/>
       <c r="S90" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #101</t>
@@ -2652,10 +2658,10 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" s="5" t="n">
         <v>88</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
@@ -2669,10 +2675,10 @@
       <c r="E91" t="n">
         <v>1</v>
       </c>
-      <c r="F91" s="5" t="n">
+      <c r="F91" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G91" s="8">
         <f>IF(E91&gt;1,(1.732*D91*F91)/1000,(D91*F91)/1000)</f>
         <v/>
       </c>
@@ -2688,10 +2694,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="5" t="n">
         <v>89</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2701,14 +2707,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F92" s="5" t="n"/>
-      <c r="G92" s="6" t="n"/>
+      <c r="F92" s="7" t="n"/>
+      <c r="G92" s="8" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="5" t="n">
         <v>90</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2718,14 +2724,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F93" s="5" t="n"/>
-      <c r="G93" s="6" t="n"/>
+      <c r="F93" s="7" t="n"/>
+      <c r="G93" s="8" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="5" t="n">
         <v>91</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -2733,8 +2739,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F94" s="5" t="n"/>
-      <c r="G94" s="6" t="n"/>
+      <c r="F94" s="7" t="n"/>
+      <c r="G94" s="8" t="n"/>
       <c r="S94" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #101</t>
@@ -2742,10 +2748,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="5" t="n">
         <v>92</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
@@ -2759,10 +2765,10 @@
       <c r="E95" t="n">
         <v>1</v>
       </c>
-      <c r="F95" s="5" t="n">
+      <c r="F95" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G95" s="6">
+      <c r="G95" s="8">
         <f>IF(E95&gt;1,(1.732*D95*F95)/1000,(D95*F95)/1000)</f>
         <v/>
       </c>
@@ -2778,10 +2784,10 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="5" t="n">
         <v>93</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
@@ -2789,8 +2795,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F96" s="5" t="n"/>
-      <c r="G96" s="6" t="n"/>
+      <c r="F96" s="7" t="n"/>
+      <c r="G96" s="8" t="n"/>
       <c r="S96" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #101</t>
@@ -2798,10 +2804,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="5" t="n">
         <v>94</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -2815,10 +2821,10 @@
       <c r="E97" t="n">
         <v>1</v>
       </c>
-      <c r="F97" s="5" t="n">
+      <c r="F97" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G97" s="6">
+      <c r="G97" s="8">
         <f>IF(E97&gt;1,(1.732*D97*F97)/1000,(D97*F97)/1000)</f>
         <v/>
       </c>
@@ -2829,10 +2835,10 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" s="5" t="n">
         <v>95</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2842,14 +2848,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F98" s="5" t="n"/>
-      <c r="G98" s="6" t="n"/>
+      <c r="F98" s="7" t="n"/>
+      <c r="G98" s="8" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="5" t="n">
         <v>96</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -2863,10 +2869,10 @@
       <c r="E99" t="n">
         <v>1</v>
       </c>
-      <c r="F99" s="5" t="n">
+      <c r="F99" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G99" s="6">
+      <c r="G99" s="8">
         <f>IF(E99&gt;1,(1.732*D99*F99)/1000,(D99*F99)/1000)</f>
         <v/>
       </c>
@@ -2877,10 +2883,10 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="5" t="n">
         <v>97</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -2888,8 +2894,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F100" s="5" t="n"/>
-      <c r="G100" s="6" t="n"/>
+      <c r="F100" s="7" t="n"/>
+      <c r="G100" s="8" t="n"/>
       <c r="S100" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -2897,10 +2903,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="5" t="n">
         <v>98</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
@@ -2908,8 +2914,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F101" s="5" t="n"/>
-      <c r="G101" s="6" t="n"/>
+      <c r="F101" s="7" t="n"/>
+      <c r="G101" s="8" t="n"/>
       <c r="S101" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #101</t>
@@ -2917,10 +2923,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" s="5" t="n">
         <v>99</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2930,14 +2936,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F102" s="5" t="n"/>
-      <c r="G102" s="6" t="n"/>
+      <c r="F102" s="7" t="n"/>
+      <c r="G102" s="8" t="n"/>
     </row>
     <row r="103">
-      <c r="A103" t="n">
+      <c r="A103" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2947,14 +2953,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F103" s="5" t="n"/>
-      <c r="G103" s="6" t="n"/>
+      <c r="F103" s="7" t="n"/>
+      <c r="G103" s="8" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="5" t="n">
         <v>101</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -2968,10 +2974,10 @@
       <c r="E104" t="n">
         <v>1</v>
       </c>
-      <c r="F104" s="5" t="n">
+      <c r="F104" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G104" s="6">
+      <c r="G104" s="8">
         <f>IF(E104&gt;1,(1.732*D104*F104)/1000,(D104*F104)/1000)</f>
         <v/>
       </c>
@@ -3000,10 +3006,10 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="5" t="n">
         <v>102</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3013,14 +3019,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F105" s="5" t="n"/>
-      <c r="G105" s="6" t="n"/>
+      <c r="F105" s="7" t="n"/>
+      <c r="G105" s="8" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="5" t="n">
         <v>103</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3030,14 +3036,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F106" s="5" t="n"/>
-      <c r="G106" s="6" t="n"/>
+      <c r="F106" s="7" t="n"/>
+      <c r="G106" s="8" t="n"/>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="5" t="n">
         <v>104</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3047,16 +3053,16 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F107" s="5" t="n"/>
-      <c r="G107" s="6" t="n"/>
+      <c r="F107" s="7" t="n"/>
+      <c r="G107" s="8" t="n"/>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108" s="5" t="inlineStr">
         <is>
           <t>105- 200</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3066,8 +3072,8 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F108" s="5" t="n"/>
-      <c r="G108" s="6" t="n"/>
+      <c r="F108" s="7" t="n"/>
+      <c r="G108" s="8" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
@@ -3095,10 +3101,10 @@
       <c r="S109" s="4" t="n"/>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="5" t="n">
         <v>201</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -3112,10 +3118,10 @@
       <c r="E110" t="n">
         <v>1</v>
       </c>
-      <c r="F110" s="5" t="n">
+      <c r="F110" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="G110" s="6">
+      <c r="G110" s="8">
         <f>IF(E110&gt;1,(1.732*D110*F110)/1000,(D110*F110)/1000)</f>
         <v/>
       </c>
@@ -3126,10 +3132,10 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="5" t="n">
         <v>202</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -3137,8 +3143,8 @@
           <t>DROP-IN HAND SINK</t>
         </is>
       </c>
-      <c r="F111" s="5" t="n"/>
-      <c r="G111" s="6" t="n"/>
+      <c r="F111" s="7" t="n"/>
+      <c r="G111" s="8" t="n"/>
       <c r="H111" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3164,10 +3170,10 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="5" t="n">
         <v>203</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="inlineStr">
@@ -3175,8 +3181,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F112" s="5" t="n"/>
-      <c r="G112" s="6" t="n"/>
+      <c r="F112" s="7" t="n"/>
+      <c r="G112" s="8" t="n"/>
       <c r="S112" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #201</t>
@@ -3184,10 +3190,10 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
+      <c r="A113" s="5" t="n">
         <v>204</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -3195,8 +3201,8 @@
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F113" s="5" t="n"/>
-      <c r="G113" s="6" t="n"/>
+      <c r="F113" s="7" t="n"/>
+      <c r="G113" s="8" t="n"/>
       <c r="S113" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #201</t>
@@ -3204,10 +3210,10 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" s="5" t="n">
         <v>205</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="inlineStr">
@@ -3221,10 +3227,10 @@
       <c r="E114" t="n">
         <v>1</v>
       </c>
-      <c r="F114" s="5" t="n">
+      <c r="F114" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="G114" s="6">
+      <c r="G114" s="8">
         <f>IF(E114&gt;1,(1.732*D114*F114)/1000,(D114*F114)/1000)</f>
         <v/>
       </c>
@@ -3235,10 +3241,10 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="5" t="n">
         <v>206</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -3252,19 +3258,19 @@
       <c r="E115" t="n">
         <v>1</v>
       </c>
-      <c r="F115" s="5" t="n">
+      <c r="F115" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G115" s="6">
+      <c r="G115" s="8">
         <f>IF(E115&gt;1,(1.732*D115*F115)/1000,(D115*F115)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="5" t="n">
         <v>207</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="inlineStr">
@@ -3272,8 +3278,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F116" s="5" t="n"/>
-      <c r="G116" s="6" t="n"/>
+      <c r="F116" s="7" t="n"/>
+      <c r="G116" s="8" t="n"/>
       <c r="S116" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #201</t>
@@ -3281,10 +3287,10 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="5" t="n">
         <v>208</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C117" t="inlineStr">
@@ -3298,10 +3304,10 @@
       <c r="E117" t="n">
         <v>1</v>
       </c>
-      <c r="F117" s="5" t="n">
+      <c r="F117" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G117" s="6">
+      <c r="G117" s="8">
         <f>IF(E117&gt;1,(1.732*D117*F117)/1000,(D117*F117)/1000)</f>
         <v/>
       </c>
@@ -3317,10 +3323,10 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" s="5" t="n">
         <v>209</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3330,14 +3336,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F118" s="5" t="n"/>
-      <c r="G118" s="6" t="n"/>
+      <c r="F118" s="7" t="n"/>
+      <c r="G118" s="8" t="n"/>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="5" t="n">
         <v>210</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3347,14 +3353,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F119" s="5" t="n"/>
-      <c r="G119" s="6" t="n"/>
+      <c r="F119" s="7" t="n"/>
+      <c r="G119" s="8" t="n"/>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="5" t="n">
         <v>211</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="inlineStr">
@@ -3368,10 +3374,10 @@
       <c r="E120" t="n">
         <v>1</v>
       </c>
-      <c r="F120" s="5" t="n">
+      <c r="F120" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G120" s="6">
+      <c r="G120" s="8">
         <f>IF(E120&gt;1,(1.732*D120*F120)/1000,(D120*F120)/1000)</f>
         <v/>
       </c>
@@ -3387,10 +3393,10 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="5" t="n">
         <v>212</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="inlineStr">
@@ -3398,8 +3404,8 @@
           <t>SUSHI CASE STAND</t>
         </is>
       </c>
-      <c r="F121" s="5" t="n"/>
-      <c r="G121" s="6" t="n"/>
+      <c r="F121" s="7" t="n"/>
+      <c r="G121" s="8" t="n"/>
       <c r="S121" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #201</t>
@@ -3407,10 +3413,10 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="5" t="n">
         <v>213</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="inlineStr">
@@ -3424,10 +3430,10 @@
       <c r="E122" t="n">
         <v>1</v>
       </c>
-      <c r="F122" s="5" t="n">
+      <c r="F122" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G122" s="6">
+      <c r="G122" s="8">
         <f>IF(E122&gt;1,(1.732*D122*F122)/1000,(D122*F122)/1000)</f>
         <v/>
       </c>
@@ -3443,10 +3449,10 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="5" t="n">
         <v>214</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C123" t="inlineStr">
@@ -3454,8 +3460,8 @@
           <t>SUSHI CASE STAND</t>
         </is>
       </c>
-      <c r="F123" s="5" t="n"/>
-      <c r="G123" s="6" t="n"/>
+      <c r="F123" s="7" t="n"/>
+      <c r="G123" s="8" t="n"/>
       <c r="S123" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #201</t>
@@ -3463,10 +3469,10 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="5" t="n">
         <v>215</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3476,14 +3482,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F124" s="5" t="n"/>
-      <c r="G124" s="6" t="n"/>
+      <c r="F124" s="7" t="n"/>
+      <c r="G124" s="8" t="n"/>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="5" t="n">
         <v>216</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C125" t="inlineStr">
@@ -3497,10 +3503,10 @@
       <c r="E125" t="n">
         <v>1</v>
       </c>
-      <c r="F125" s="5" t="n">
+      <c r="F125" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="G125" s="6">
+      <c r="G125" s="8">
         <f>IF(E125&gt;1,(1.732*D125*F125)/1000,(D125*F125)/1000)</f>
         <v/>
       </c>
@@ -3521,10 +3527,10 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="5" t="n">
         <v>217</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C126" t="inlineStr">
@@ -3532,8 +3538,8 @@
           <t>SUSHI BAR TOP AND DIE</t>
         </is>
       </c>
-      <c r="F126" s="5" t="n"/>
-      <c r="G126" s="6" t="n"/>
+      <c r="F126" s="7" t="n"/>
+      <c r="G126" s="8" t="n"/>
       <c r="S126" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -3541,10 +3547,10 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="5" t="n">
         <v>218</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="inlineStr">
@@ -3552,8 +3558,8 @@
           <t>UNDER COUNTER WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F127" s="5" t="n"/>
-      <c r="G127" s="6" t="n"/>
+      <c r="F127" s="7" t="n"/>
+      <c r="G127" s="8" t="n"/>
       <c r="H127" t="inlineStr">
         <is>
           <t>3/8"</t>
@@ -3569,10 +3575,10 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="5" t="n">
         <v>219</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3582,14 +3588,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F128" s="5" t="n"/>
-      <c r="G128" s="6" t="n"/>
+      <c r="F128" s="7" t="n"/>
+      <c r="G128" s="8" t="n"/>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="5" t="n">
         <v>220</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3599,14 +3605,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F129" s="5" t="n"/>
-      <c r="G129" s="6" t="n"/>
+      <c r="F129" s="7" t="n"/>
+      <c r="G129" s="8" t="n"/>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="5" t="n">
         <v>221</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="inlineStr">
@@ -3614,8 +3620,8 @@
           <t>SUSHI FRONT SERVING COUNTER</t>
         </is>
       </c>
-      <c r="F130" s="5" t="n"/>
-      <c r="G130" s="6" t="n"/>
+      <c r="F130" s="7" t="n"/>
+      <c r="G130" s="8" t="n"/>
       <c r="S130" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -3623,10 +3629,10 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="5" t="n">
         <v>222</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="inlineStr">
@@ -3640,19 +3646,19 @@
       <c r="E131" t="n">
         <v>1</v>
       </c>
-      <c r="F131" s="5" t="n">
+      <c r="F131" s="7" t="n">
         <v>0.4</v>
       </c>
-      <c r="G131" s="6">
+      <c r="G131" s="8">
         <f>IF(E131&gt;1,(1.732*D131*F131)/1000,(D131*F131)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="5" t="n">
         <v>223</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="inlineStr">
@@ -3660,8 +3666,8 @@
           <t>RICE WARMER STAND</t>
         </is>
       </c>
-      <c r="F132" s="5" t="n"/>
-      <c r="G132" s="6" t="n"/>
+      <c r="F132" s="7" t="n"/>
+      <c r="G132" s="8" t="n"/>
       <c r="S132" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -3669,10 +3675,10 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="5" t="n">
         <v>224</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C133" t="inlineStr">
@@ -3686,10 +3692,10 @@
       <c r="E133" t="n">
         <v>1</v>
       </c>
-      <c r="F133" s="5" t="n">
+      <c r="F133" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G133" s="6">
+      <c r="G133" s="8">
         <f>IF(E133&gt;1,(1.732*D133*F133)/1000,(D133*F133)/1000)</f>
         <v/>
       </c>
@@ -3705,10 +3711,10 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="5" t="n">
         <v>225</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3718,14 +3724,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F134" s="5" t="n"/>
-      <c r="G134" s="6" t="n"/>
+      <c r="F134" s="7" t="n"/>
+      <c r="G134" s="8" t="n"/>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="5" t="n">
         <v>226</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="inlineStr">
@@ -3733,8 +3739,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F135" s="5" t="n"/>
-      <c r="G135" s="6" t="n"/>
+      <c r="F135" s="7" t="n"/>
+      <c r="G135" s="8" t="n"/>
       <c r="S135" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #221</t>
@@ -3742,10 +3748,10 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="5" t="n">
         <v>227</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -3759,19 +3765,19 @@
       <c r="E136" t="n">
         <v>1</v>
       </c>
-      <c r="F136" s="5" t="n">
+      <c r="F136" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G136" s="6">
+      <c r="G136" s="8">
         <f>IF(E136&gt;1,(1.732*D136*F136)/1000,(D136*F136)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
+      <c r="A137" s="5" t="n">
         <v>228</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="inlineStr">
@@ -3779,8 +3785,8 @@
           <t>PREPARATION SINK</t>
         </is>
       </c>
-      <c r="F137" s="5" t="n"/>
-      <c r="G137" s="6" t="n"/>
+      <c r="F137" s="7" t="n"/>
+      <c r="G137" s="8" t="n"/>
       <c r="H137" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3806,10 +3812,10 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
+      <c r="A138" s="5" t="n">
         <v>229</v>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B138" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3819,14 +3825,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F138" s="5" t="n"/>
-      <c r="G138" s="6" t="n"/>
+      <c r="F138" s="7" t="n"/>
+      <c r="G138" s="8" t="n"/>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="5" t="n">
         <v>230</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3836,14 +3842,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F139" s="5" t="n"/>
-      <c r="G139" s="6" t="n"/>
+      <c r="F139" s="7" t="n"/>
+      <c r="G139" s="8" t="n"/>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="5" t="n">
         <v>231</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="inlineStr">
@@ -3857,10 +3863,10 @@
       <c r="E140" t="n">
         <v>1</v>
       </c>
-      <c r="F140" s="5" t="n">
+      <c r="F140" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G140" s="6">
+      <c r="G140" s="8">
         <f>IF(E140&gt;1,(1.732*D140*F140)/1000,(D140*F140)/1000)</f>
         <v/>
       </c>
@@ -3876,10 +3882,10 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="5" t="n">
         <v>232</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
@@ -3887,8 +3893,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F141" s="5" t="n"/>
-      <c r="G141" s="6" t="n"/>
+      <c r="F141" s="7" t="n"/>
+      <c r="G141" s="8" t="n"/>
       <c r="S141" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #221</t>
@@ -3896,10 +3902,10 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="5" t="n">
         <v>233</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="inlineStr">
@@ -3913,19 +3919,19 @@
       <c r="E142" t="n">
         <v>1</v>
       </c>
-      <c r="F142" s="5" t="n">
+      <c r="F142" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G142" s="6">
+      <c r="G142" s="8">
         <f>IF(E142&gt;1,(1.732*D142*F142)/1000,(D142*F142)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="5" t="n">
         <v>234</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="inlineStr">
@@ -3939,19 +3945,19 @@
       <c r="E143" t="n">
         <v>1</v>
       </c>
-      <c r="F143" s="5" t="n">
+      <c r="F143" s="7" t="n">
         <v>0.4</v>
       </c>
-      <c r="G143" s="6">
+      <c r="G143" s="8">
         <f>IF(E143&gt;1,(1.732*D143*F143)/1000,(D143*F143)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="5" t="n">
         <v>235</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3961,14 +3967,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F144" s="5" t="n"/>
-      <c r="G144" s="6" t="n"/>
+      <c r="F144" s="7" t="n"/>
+      <c r="G144" s="8" t="n"/>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="5" t="n">
         <v>236</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="inlineStr">
@@ -3976,8 +3982,8 @@
           <t>RICE WARMER STAND</t>
         </is>
       </c>
-      <c r="F145" s="5" t="n"/>
-      <c r="G145" s="6" t="n"/>
+      <c r="F145" s="7" t="n"/>
+      <c r="G145" s="8" t="n"/>
       <c r="S145" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -3985,10 +3991,10 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="5" t="n">
         <v>237</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C146" t="inlineStr">
@@ -4002,10 +4008,10 @@
       <c r="E146" t="n">
         <v>1</v>
       </c>
-      <c r="F146" s="5" t="n">
+      <c r="F146" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G146" s="6">
+      <c r="G146" s="8">
         <f>IF(E146&gt;1,(1.732*D146*F146)/1000,(D146*F146)/1000)</f>
         <v/>
       </c>
@@ -4021,10 +4027,10 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
+      <c r="A147" s="5" t="n">
         <v>238</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C147" t="inlineStr">
@@ -4032,8 +4038,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F147" s="5" t="n"/>
-      <c r="G147" s="6" t="n"/>
+      <c r="F147" s="7" t="n"/>
+      <c r="G147" s="8" t="n"/>
       <c r="S147" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #221</t>
@@ -4041,10 +4047,10 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
+      <c r="A148" s="5" t="n">
         <v>239</v>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B148" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4054,14 +4060,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F148" s="5" t="n"/>
-      <c r="G148" s="6" t="n"/>
+      <c r="F148" s="7" t="n"/>
+      <c r="G148" s="8" t="n"/>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" s="5" t="n">
         <v>240</v>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4071,14 +4077,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F149" s="5" t="n"/>
-      <c r="G149" s="6" t="n"/>
+      <c r="F149" s="7" t="n"/>
+      <c r="G149" s="8" t="n"/>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" s="5" t="n">
         <v>241</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="inlineStr">
@@ -4092,19 +4098,19 @@
       <c r="E150" t="n">
         <v>1</v>
       </c>
-      <c r="F150" s="5" t="n">
+      <c r="F150" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G150" s="6">
+      <c r="G150" s="8">
         <f>IF(E150&gt;1,(1.732*D150*F150)/1000,(D150*F150)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" s="5" t="n">
         <v>242</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C151" t="inlineStr">
@@ -4112,8 +4118,8 @@
           <t>PREPARATION SINK</t>
         </is>
       </c>
-      <c r="F151" s="5" t="n"/>
-      <c r="G151" s="6" t="n"/>
+      <c r="F151" s="7" t="n"/>
+      <c r="G151" s="8" t="n"/>
       <c r="H151" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -4139,10 +4145,10 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
+      <c r="A152" s="5" t="n">
         <v>243</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C152" t="inlineStr">
@@ -4156,10 +4162,10 @@
       <c r="E152" t="n">
         <v>1</v>
       </c>
-      <c r="F152" s="5" t="n">
+      <c r="F152" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G152" s="6">
+      <c r="G152" s="8">
         <f>IF(E152&gt;1,(1.732*D152*F152)/1000,(D152*F152)/1000)</f>
         <v/>
       </c>
@@ -4175,10 +4181,10 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
+      <c r="A153" s="5" t="n">
         <v>244</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="inlineStr">
@@ -4186,8 +4192,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F153" s="5" t="n"/>
-      <c r="G153" s="6" t="n"/>
+      <c r="F153" s="7" t="n"/>
+      <c r="G153" s="8" t="n"/>
       <c r="S153" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #221</t>
@@ -4195,10 +4201,10 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
+      <c r="A154" s="5" t="n">
         <v>245</v>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B154" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4208,14 +4214,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F154" s="5" t="n"/>
-      <c r="G154" s="6" t="n"/>
+      <c r="F154" s="7" t="n"/>
+      <c r="G154" s="8" t="n"/>
     </row>
     <row r="155">
-      <c r="A155" t="n">
+      <c r="A155" s="5" t="n">
         <v>246</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C155" t="inlineStr">
@@ -4229,19 +4235,19 @@
       <c r="E155" t="n">
         <v>1</v>
       </c>
-      <c r="F155" s="5" t="n">
+      <c r="F155" s="7" t="n">
         <v>0.4</v>
       </c>
-      <c r="G155" s="6">
+      <c r="G155" s="8">
         <f>IF(E155&gt;1,(1.732*D155*F155)/1000,(D155*F155)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
+      <c r="A156" s="5" t="n">
         <v>247</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C156" t="inlineStr">
@@ -4249,8 +4255,8 @@
           <t>RICE WARMER STAND</t>
         </is>
       </c>
-      <c r="F156" s="5" t="n"/>
-      <c r="G156" s="6" t="n"/>
+      <c r="F156" s="7" t="n"/>
+      <c r="G156" s="8" t="n"/>
       <c r="S156" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -4258,10 +4264,10 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" s="5" t="n">
         <v>248</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C157" t="inlineStr">
@@ -4275,19 +4281,19 @@
       <c r="E157" t="n">
         <v>1</v>
       </c>
-      <c r="F157" s="5" t="n">
+      <c r="F157" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G157" s="6">
+      <c r="G157" s="8">
         <f>IF(E157&gt;1,(1.732*D157*F157)/1000,(D157*F157)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" s="5" t="n">
         <v>249</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4297,14 +4303,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F158" s="5" t="n"/>
-      <c r="G158" s="6" t="n"/>
+      <c r="F158" s="7" t="n"/>
+      <c r="G158" s="8" t="n"/>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" s="5" t="n">
         <v>250</v>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4314,14 +4320,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F159" s="5" t="n"/>
-      <c r="G159" s="6" t="n"/>
+      <c r="F159" s="7" t="n"/>
+      <c r="G159" s="8" t="n"/>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" s="5" t="n">
         <v>251</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C160" t="inlineStr">
@@ -4335,10 +4341,10 @@
       <c r="E160" t="n">
         <v>1</v>
       </c>
-      <c r="F160" s="5" t="n">
+      <c r="F160" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="G160" s="6">
+      <c r="G160" s="8">
         <f>IF(E160&gt;1,(1.732*D160*F160)/1000,(D160*F160)/1000)</f>
         <v/>
       </c>
@@ -4349,10 +4355,10 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
+      <c r="A161" s="5" t="n">
         <v>252</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161" s="6" t="n">
         <v>4</v>
       </c>
       <c r="C161" t="inlineStr">
@@ -4366,10 +4372,10 @@
       <c r="E161" t="n">
         <v>1</v>
       </c>
-      <c r="F161" s="5" t="n">
+      <c r="F161" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="G161" s="6">
+      <c r="G161" s="8">
         <f>IF(E161&gt;1,(1.732*D161*F161)/1000,(D161*F161)/1000)</f>
         <v/>
       </c>
@@ -4385,10 +4391,10 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" s="5" t="n">
         <v>253</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4398,14 +4404,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F162" s="5" t="n"/>
-      <c r="G162" s="6" t="n"/>
+      <c r="F162" s="7" t="n"/>
+      <c r="G162" s="8" t="n"/>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" s="5" t="n">
         <v>254</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4415,16 +4421,16 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F163" s="5" t="n"/>
-      <c r="G163" s="6" t="n"/>
+      <c r="F163" s="7" t="n"/>
+      <c r="G163" s="8" t="n"/>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
+      <c r="A164" s="5" t="inlineStr">
         <is>
           <t>255- 260</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B164" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4434,8 +4440,8 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F164" s="5" t="n"/>
-      <c r="G164" s="6" t="n"/>
+      <c r="F164" s="7" t="n"/>
+      <c r="G164" s="8" t="n"/>
     </row>
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
@@ -4463,10 +4469,10 @@
       <c r="S165" s="4" t="n"/>
     </row>
     <row r="166">
-      <c r="A166" t="n">
+      <c r="A166" s="5" t="n">
         <v>261</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C166" t="inlineStr">
@@ -4474,8 +4480,8 @@
           <t>PASS THRU SHELF</t>
         </is>
       </c>
-      <c r="F166" s="5" t="n"/>
-      <c r="G166" s="6" t="n"/>
+      <c r="F166" s="7" t="n"/>
+      <c r="G166" s="8" t="n"/>
       <c r="S166" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -4483,10 +4489,10 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
+      <c r="A167" s="5" t="n">
         <v>262</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C167" t="inlineStr">
@@ -4494,8 +4500,8 @@
           <t>DOUBLE BOTTLE RAIL</t>
         </is>
       </c>
-      <c r="F167" s="5" t="n"/>
-      <c r="G167" s="6" t="n"/>
+      <c r="F167" s="7" t="n"/>
+      <c r="G167" s="8" t="n"/>
       <c r="S167" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #287</t>
@@ -4503,10 +4509,10 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
+      <c r="A168" s="5" t="n">
         <v>263</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C168" t="inlineStr">
@@ -4520,10 +4526,10 @@
       <c r="E168" t="n">
         <v>1</v>
       </c>
-      <c r="F168" s="5" t="n">
+      <c r="F168" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G168" s="6">
+      <c r="G168" s="8">
         <f>IF(E168&gt;1,(1.732*D168*F168)/1000,(D168*F168)/1000)</f>
         <v/>
       </c>
@@ -4539,10 +4545,10 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="5" t="n">
         <v>264</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -4550,8 +4556,8 @@
           <t>COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="F169" s="5" t="n"/>
-      <c r="G169" s="6" t="n"/>
+      <c r="F169" s="7" t="n"/>
+      <c r="G169" s="8" t="n"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>1"</t>
@@ -4564,10 +4570,10 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
+      <c r="A170" s="5" t="n">
         <v>265</v>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4577,14 +4583,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F170" s="5" t="n"/>
-      <c r="G170" s="6" t="n"/>
+      <c r="F170" s="7" t="n"/>
+      <c r="G170" s="8" t="n"/>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="5" t="n">
         <v>266</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C171" t="inlineStr">
@@ -4598,19 +4604,19 @@
       <c r="E171" t="n">
         <v>1</v>
       </c>
-      <c r="F171" s="5" t="n">
+      <c r="F171" s="7" t="n">
         <v>0.4</v>
       </c>
-      <c r="G171" s="6">
+      <c r="G171" s="8">
         <f>IF(E171&gt;1,(1.732*D171*F171)/1000,(D171*F171)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="5" t="n">
         <v>267</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C172" t="inlineStr">
@@ -4618,8 +4624,8 @@
           <t>CO2 TANK</t>
         </is>
       </c>
-      <c r="F172" s="5" t="n"/>
-      <c r="G172" s="6" t="n"/>
+      <c r="F172" s="7" t="n"/>
+      <c r="G172" s="8" t="n"/>
       <c r="S172" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -4627,10 +4633,10 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" s="5" t="n">
         <v>268</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C173" t="inlineStr">
@@ -4644,10 +4650,10 @@
       <c r="E173" t="n">
         <v>1</v>
       </c>
-      <c r="F173" s="5" t="n">
+      <c r="F173" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G173" s="6">
+      <c r="G173" s="8">
         <f>IF(E173&gt;1,(1.732*D173*F173)/1000,(D173*F173)/1000)</f>
         <v/>
       </c>
@@ -4658,10 +4664,10 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="5" t="n">
         <v>269</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4671,14 +4677,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F174" s="5" t="n"/>
-      <c r="G174" s="6" t="n"/>
+      <c r="F174" s="7" t="n"/>
+      <c r="G174" s="8" t="n"/>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="5" t="n">
         <v>270</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4688,14 +4694,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F175" s="5" t="n"/>
-      <c r="G175" s="6" t="n"/>
+      <c r="F175" s="7" t="n"/>
+      <c r="G175" s="8" t="n"/>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="5" t="n">
         <v>271</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C176" t="inlineStr">
@@ -4703,8 +4709,8 @@
           <t>DIPPERWELL</t>
         </is>
       </c>
-      <c r="F176" s="5" t="n"/>
-      <c r="G176" s="6" t="n"/>
+      <c r="F176" s="7" t="n"/>
+      <c r="G176" s="8" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
           <t>3/8"</t>
@@ -4720,10 +4726,10 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="5" t="n">
         <v>272</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C177" t="inlineStr">
@@ -4737,19 +4743,19 @@
       <c r="E177" t="n">
         <v>1</v>
       </c>
-      <c r="F177" s="5" t="n">
+      <c r="F177" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="G177" s="6">
+      <c r="G177" s="8">
         <f>IF(E177&gt;1,(1.732*D177*F177)/1000,(D177*F177)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="5" t="n">
         <v>273</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C178" t="inlineStr">
@@ -4757,8 +4763,8 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F178" s="5" t="n"/>
-      <c r="G178" s="6" t="n"/>
+      <c r="F178" s="7" t="n"/>
+      <c r="G178" s="8" t="n"/>
       <c r="S178" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -4766,10 +4772,10 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="5" t="n">
         <v>274</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C179" t="inlineStr">
@@ -4783,10 +4789,10 @@
       <c r="E179" t="n">
         <v>1</v>
       </c>
-      <c r="F179" s="5" t="n">
+      <c r="F179" s="7" t="n">
         <v>19.5</v>
       </c>
-      <c r="G179" s="6">
+      <c r="G179" s="8">
         <f>IF(E179&gt;1,(1.732*D179*F179)/1000,(D179*F179)/1000)</f>
         <v/>
       </c>
@@ -4802,10 +4808,10 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="5" t="n">
         <v>275</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4815,14 +4821,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F180" s="5" t="n"/>
-      <c r="G180" s="6" t="n"/>
+      <c r="F180" s="7" t="n"/>
+      <c r="G180" s="8" t="n"/>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="5" t="n">
         <v>276</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="inlineStr">
@@ -4830,8 +4836,8 @@
           <t>UNDER COUNTER WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F181" s="5" t="n"/>
-      <c r="G181" s="6" t="n"/>
+      <c r="F181" s="7" t="n"/>
+      <c r="G181" s="8" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
           <t>3/8"</t>
@@ -4847,10 +4853,10 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="5" t="n">
         <v>277</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C182" t="inlineStr">
@@ -4864,19 +4870,19 @@
       <c r="E182" t="n">
         <v>1</v>
       </c>
-      <c r="F182" s="5" t="n">
+      <c r="F182" s="7" t="n">
         <v>3.5</v>
       </c>
-      <c r="G182" s="6">
+      <c r="G182" s="8">
         <f>IF(E182&gt;1,(1.732*D182*F182)/1000,(D182*F182)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="5" t="n">
         <v>278</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C183" t="inlineStr">
@@ -4884,8 +4890,8 @@
           <t>KNOCK BOX</t>
         </is>
       </c>
-      <c r="F183" s="5" t="n"/>
-      <c r="G183" s="6" t="n"/>
+      <c r="F183" s="7" t="n"/>
+      <c r="G183" s="8" t="n"/>
       <c r="S183" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #287</t>
@@ -4893,10 +4899,10 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="5" t="n">
         <v>279</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4906,14 +4912,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F184" s="5" t="n"/>
-      <c r="G184" s="6" t="n"/>
+      <c r="F184" s="7" t="n"/>
+      <c r="G184" s="8" t="n"/>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="5" t="n">
         <v>280</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4923,14 +4929,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F185" s="5" t="n"/>
-      <c r="G185" s="6" t="n"/>
+      <c r="F185" s="7" t="n"/>
+      <c r="G185" s="8" t="n"/>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="5" t="n">
         <v>281</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="inlineStr">
@@ -4938,8 +4944,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F186" s="5" t="n"/>
-      <c r="G186" s="6" t="n"/>
+      <c r="F186" s="7" t="n"/>
+      <c r="G186" s="8" t="n"/>
       <c r="S186" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -4947,10 +4953,10 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
+      <c r="A187" s="5" t="n">
         <v>282</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="inlineStr">
@@ -4964,19 +4970,19 @@
       <c r="E187" t="n">
         <v>1</v>
       </c>
-      <c r="F187" s="5" t="n">
+      <c r="F187" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="G187" s="6">
+      <c r="G187" s="8">
         <f>IF(E187&gt;1,(1.732*D187*F187)/1000,(D187*F187)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
+      <c r="A188" s="5" t="n">
         <v>283</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C188" t="inlineStr">
@@ -4990,19 +4996,19 @@
       <c r="E188" t="n">
         <v>1</v>
       </c>
-      <c r="F188" s="5" t="n">
+      <c r="F188" s="7" t="n">
         <v>2.7</v>
       </c>
-      <c r="G188" s="6">
+      <c r="G188" s="8">
         <f>IF(E188&gt;1,(1.732*D188*F188)/1000,(D188*F188)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="5" t="n">
         <v>284</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C189" t="inlineStr">
@@ -5016,10 +5022,10 @@
       <c r="E189" t="n">
         <v>1</v>
       </c>
-      <c r="F189" s="5" t="n">
+      <c r="F189" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="G189" s="6">
+      <c r="G189" s="8">
         <f>IF(E189&gt;1,(1.732*D189*F189)/1000,(D189*F189)/1000)</f>
         <v/>
       </c>
@@ -5035,10 +5041,10 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
+      <c r="A190" s="5" t="n">
         <v>285</v>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5048,14 +5054,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F190" s="5" t="n"/>
-      <c r="G190" s="6" t="n"/>
+      <c r="F190" s="7" t="n"/>
+      <c r="G190" s="8" t="n"/>
     </row>
     <row r="191">
-      <c r="A191" t="n">
+      <c r="A191" s="5" t="n">
         <v>286</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="inlineStr">
@@ -5069,10 +5075,10 @@
       <c r="E191" t="n">
         <v>1</v>
       </c>
-      <c r="F191" s="5" t="n">
+      <c r="F191" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="G191" s="6">
+      <c r="G191" s="8">
         <f>IF(E191&gt;1,(1.732*D191*F191)/1000,(D191*F191)/1000)</f>
         <v/>
       </c>
@@ -5086,10 +5092,10 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n">
+      <c r="A192" s="5" t="n">
         <v>287</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="inlineStr">
@@ -5103,10 +5109,10 @@
       <c r="E192" t="n">
         <v>1</v>
       </c>
-      <c r="F192" s="5" t="n">
+      <c r="F192" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G192" s="6">
+      <c r="G192" s="8">
         <f>IF(E192&gt;1,(1.732*D192*F192)/1000,(D192*F192)/1000)</f>
         <v/>
       </c>
@@ -5117,10 +5123,10 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
+      <c r="A193" s="5" t="n">
         <v>288</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C193" t="inlineStr">
@@ -5128,8 +5134,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F193" s="5" t="n"/>
-      <c r="G193" s="6" t="n"/>
+      <c r="F193" s="7" t="n"/>
+      <c r="G193" s="8" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -5155,10 +5161,10 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
+      <c r="A194" s="5" t="n">
         <v>289</v>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5168,14 +5174,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F194" s="5" t="n"/>
-      <c r="G194" s="6" t="n"/>
+      <c r="F194" s="7" t="n"/>
+      <c r="G194" s="8" t="n"/>
     </row>
     <row r="195">
-      <c r="A195" t="n">
+      <c r="A195" s="5" t="n">
         <v>290</v>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5185,14 +5191,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F195" s="5" t="n"/>
-      <c r="G195" s="6" t="n"/>
+      <c r="F195" s="7" t="n"/>
+      <c r="G195" s="8" t="n"/>
     </row>
     <row r="196">
-      <c r="A196" t="n">
+      <c r="A196" s="5" t="n">
         <v>291</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C196" t="inlineStr">
@@ -5200,8 +5206,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F196" s="5" t="n"/>
-      <c r="G196" s="6" t="n"/>
+      <c r="F196" s="7" t="n"/>
+      <c r="G196" s="8" t="n"/>
       <c r="S196" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #287</t>
@@ -5209,10 +5215,10 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="5" t="n">
         <v>292</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="inlineStr">
@@ -5220,8 +5226,8 @@
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F197" s="5" t="n"/>
-      <c r="G197" s="6" t="n"/>
+      <c r="F197" s="7" t="n"/>
+      <c r="G197" s="8" t="n"/>
       <c r="S197" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #287</t>
@@ -5229,10 +5235,10 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="5" t="n">
         <v>293</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C198" t="inlineStr">
@@ -5246,19 +5252,19 @@
       <c r="E198" t="n">
         <v>1</v>
       </c>
-      <c r="F198" s="5" t="n">
+      <c r="F198" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G198" s="6">
+      <c r="G198" s="8">
         <f>IF(E198&gt;1,(1.732*D198*F198)/1000,(D198*F198)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="5" t="n">
         <v>294</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5268,16 +5274,16 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F199" s="5" t="n"/>
-      <c r="G199" s="6" t="n"/>
+      <c r="F199" s="7" t="n"/>
+      <c r="G199" s="8" t="n"/>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
+      <c r="A200" s="5" t="inlineStr">
         <is>
           <t>295- 300</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B200" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5287,8 +5293,8 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F200" s="5" t="n"/>
-      <c r="G200" s="6" t="n"/>
+      <c r="F200" s="7" t="n"/>
+      <c r="G200" s="8" t="n"/>
     </row>
     <row r="201">
       <c r="A201" s="3" t="inlineStr">
@@ -5316,10 +5322,10 @@
       <c r="S201" s="4" t="n"/>
     </row>
     <row r="202">
-      <c r="A202" t="n">
+      <c r="A202" s="5" t="n">
         <v>301</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C202" t="inlineStr">
@@ -5327,8 +5333,8 @@
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F202" s="5" t="n"/>
-      <c r="G202" s="6" t="n"/>
+      <c r="F202" s="7" t="n"/>
+      <c r="G202" s="8" t="n"/>
       <c r="S202" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -5336,10 +5342,10 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
+      <c r="A203" s="5" t="n">
         <v>302</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C203" t="inlineStr">
@@ -5347,8 +5353,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F203" s="5" t="n"/>
-      <c r="G203" s="6" t="n"/>
+      <c r="F203" s="7" t="n"/>
+      <c r="G203" s="8" t="n"/>
       <c r="S203" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
@@ -5356,10 +5362,10 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="5" t="n">
         <v>303</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C204" t="inlineStr">
@@ -5367,8 +5373,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F204" s="5" t="n"/>
-      <c r="G204" s="6" t="n"/>
+      <c r="F204" s="7" t="n"/>
+      <c r="G204" s="8" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -5394,10 +5400,10 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
+      <c r="A205" s="5" t="n">
         <v>304</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C205" t="inlineStr">
@@ -5411,10 +5417,10 @@
       <c r="E205" t="n">
         <v>1</v>
       </c>
-      <c r="F205" s="5" t="n">
+      <c r="F205" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="G205" s="6">
+      <c r="G205" s="8">
         <f>IF(E205&gt;1,(1.732*D205*F205)/1000,(D205*F205)/1000)</f>
         <v/>
       </c>
@@ -5425,10 +5431,10 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
+      <c r="A206" s="5" t="n">
         <v>305</v>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B206" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5438,14 +5444,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F206" s="5" t="n"/>
-      <c r="G206" s="6" t="n"/>
+      <c r="F206" s="7" t="n"/>
+      <c r="G206" s="8" t="n"/>
     </row>
     <row r="207">
-      <c r="A207" t="n">
+      <c r="A207" s="5" t="n">
         <v>306</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C207" t="inlineStr">
@@ -5459,10 +5465,10 @@
       <c r="E207" t="n">
         <v>1</v>
       </c>
-      <c r="F207" s="5" t="n">
+      <c r="F207" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="G207" s="6">
+      <c r="G207" s="8">
         <f>IF(E207&gt;1,(1.732*D207*F207)/1000,(D207*F207)/1000)</f>
         <v/>
       </c>
@@ -5478,10 +5484,10 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="n">
+      <c r="A208" s="5" t="n">
         <v>307</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C208" t="inlineStr">
@@ -5489,8 +5495,8 @@
           <t>COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="F208" s="5" t="n"/>
-      <c r="G208" s="6" t="n"/>
+      <c r="F208" s="7" t="n"/>
+      <c r="G208" s="8" t="n"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>1"</t>
@@ -5503,10 +5509,10 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
+      <c r="A209" s="5" t="n">
         <v>308</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C209" t="inlineStr">
@@ -5514,8 +5520,8 @@
           <t>DOUBLE BOTTLE RAIL</t>
         </is>
       </c>
-      <c r="F209" s="5" t="n"/>
-      <c r="G209" s="6" t="n"/>
+      <c r="F209" s="7" t="n"/>
+      <c r="G209" s="8" t="n"/>
       <c r="S209" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
@@ -5523,10 +5529,10 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="5" t="n">
         <v>309</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5536,14 +5542,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F210" s="5" t="n"/>
-      <c r="G210" s="6" t="n"/>
+      <c r="F210" s="7" t="n"/>
+      <c r="G210" s="8" t="n"/>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="5" t="n">
         <v>310</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5553,14 +5559,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F211" s="5" t="n"/>
-      <c r="G211" s="6" t="n"/>
+      <c r="F211" s="7" t="n"/>
+      <c r="G211" s="8" t="n"/>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="5" t="n">
         <v>311</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C212" t="inlineStr">
@@ -5568,8 +5574,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F212" s="5" t="n"/>
-      <c r="G212" s="6" t="n"/>
+      <c r="F212" s="7" t="n"/>
+      <c r="G212" s="8" t="n"/>
       <c r="S212" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
@@ -5577,10 +5583,10 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="5" t="n">
         <v>312</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C213" t="inlineStr">
@@ -5588,8 +5594,8 @@
           <t>PREPARATION SINK</t>
         </is>
       </c>
-      <c r="F213" s="5" t="n"/>
-      <c r="G213" s="6" t="n"/>
+      <c r="F213" s="7" t="n"/>
+      <c r="G213" s="8" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -5615,10 +5621,10 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="5" t="n">
         <v>313</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C214" t="inlineStr">
@@ -5632,10 +5638,10 @@
       <c r="E214" t="n">
         <v>1</v>
       </c>
-      <c r="F214" s="5" t="n">
+      <c r="F214" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="G214" s="6">
+      <c r="G214" s="8">
         <f>IF(E214&gt;1,(1.732*D214*F214)/1000,(D214*F214)/1000)</f>
         <v/>
       </c>
@@ -5646,10 +5652,10 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="5" t="n">
         <v>314</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C215" t="inlineStr">
@@ -5657,8 +5663,8 @@
           <t>BLENDER STATION WITH SINK</t>
         </is>
       </c>
-      <c r="F215" s="5" t="n"/>
-      <c r="G215" s="6" t="n"/>
+      <c r="F215" s="7" t="n"/>
+      <c r="G215" s="8" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -5684,10 +5690,10 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="5" t="n">
         <v>315</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5697,14 +5703,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F216" s="5" t="n"/>
-      <c r="G216" s="6" t="n"/>
+      <c r="F216" s="7" t="n"/>
+      <c r="G216" s="8" t="n"/>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="5" t="n">
         <v>316</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C217" t="inlineStr">
@@ -5712,8 +5718,8 @@
           <t>BUTCHER BLOCK TOP</t>
         </is>
       </c>
-      <c r="F217" s="5" t="n"/>
-      <c r="G217" s="6" t="n"/>
+      <c r="F217" s="7" t="n"/>
+      <c r="G217" s="8" t="n"/>
       <c r="S217" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
@@ -5721,10 +5727,10 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="5" t="n">
         <v>317</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C218" t="inlineStr">
@@ -5738,10 +5744,10 @@
       <c r="E218" t="n">
         <v>1</v>
       </c>
-      <c r="F218" s="5" t="n">
+      <c r="F218" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="G218" s="6">
+      <c r="G218" s="8">
         <f>IF(E218&gt;1,(1.732*D218*F218)/1000,(D218*F218)/1000)</f>
         <v/>
       </c>
@@ -5757,10 +5763,10 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
+      <c r="A219" s="5" t="n">
         <v>318</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C219" t="inlineStr">
@@ -5768,8 +5774,8 @@
           <t>COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="F219" s="5" t="n"/>
-      <c r="G219" s="6" t="n"/>
+      <c r="F219" s="7" t="n"/>
+      <c r="G219" s="8" t="n"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>1"</t>
@@ -5782,10 +5788,10 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="5" t="n">
         <v>319</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5795,14 +5801,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F220" s="5" t="n"/>
-      <c r="G220" s="6" t="n"/>
+      <c r="F220" s="7" t="n"/>
+      <c r="G220" s="8" t="n"/>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="5" t="n">
         <v>320</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5812,14 +5818,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F221" s="5" t="n"/>
-      <c r="G221" s="6" t="n"/>
+      <c r="F221" s="7" t="n"/>
+      <c r="G221" s="8" t="n"/>
     </row>
     <row r="222">
-      <c r="A222" t="n">
+      <c r="A222" s="5" t="n">
         <v>321</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C222" t="inlineStr">
@@ -5827,8 +5833,8 @@
           <t>DOUBLE BOTTLE RAIL</t>
         </is>
       </c>
-      <c r="F222" s="5" t="n"/>
-      <c r="G222" s="6" t="n"/>
+      <c r="F222" s="7" t="n"/>
+      <c r="G222" s="8" t="n"/>
       <c r="S222" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
@@ -5836,10 +5842,10 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
+      <c r="A223" s="5" t="n">
         <v>322</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C223" t="inlineStr">
@@ -5847,8 +5853,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F223" s="5" t="n"/>
-      <c r="G223" s="6" t="n"/>
+      <c r="F223" s="7" t="n"/>
+      <c r="G223" s="8" t="n"/>
       <c r="S223" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
@@ -5856,10 +5862,10 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
+      <c r="A224" s="5" t="n">
         <v>323</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C224" t="inlineStr">
@@ -5867,8 +5873,8 @@
           <t>PREPARATION SINK</t>
         </is>
       </c>
-      <c r="F224" s="5" t="n"/>
-      <c r="G224" s="6" t="n"/>
+      <c r="F224" s="7" t="n"/>
+      <c r="G224" s="8" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -5894,10 +5900,10 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
+      <c r="A225" s="5" t="n">
         <v>324</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C225" t="inlineStr">
@@ -5905,8 +5911,8 @@
           <t>BUTCHER BLOCK TOP</t>
         </is>
       </c>
-      <c r="F225" s="5" t="n"/>
-      <c r="G225" s="6" t="n"/>
+      <c r="F225" s="7" t="n"/>
+      <c r="G225" s="8" t="n"/>
       <c r="S225" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
@@ -5914,10 +5920,10 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" s="5" t="n">
         <v>325</v>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5927,14 +5933,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F226" s="5" t="n"/>
-      <c r="G226" s="6" t="n"/>
+      <c r="F226" s="7" t="n"/>
+      <c r="G226" s="8" t="n"/>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="5" t="n">
         <v>326</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C227" t="inlineStr">
@@ -5948,10 +5954,10 @@
       <c r="E227" t="n">
         <v>1</v>
       </c>
-      <c r="F227" s="5" t="n">
+      <c r="F227" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="G227" s="6">
+      <c r="G227" s="8">
         <f>IF(E227&gt;1,(1.732*D227*F227)/1000,(D227*F227)/1000)</f>
         <v/>
       </c>
@@ -5967,10 +5973,10 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" s="5" t="n">
         <v>327</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C228" t="inlineStr">
@@ -5978,8 +5984,8 @@
           <t>COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="F228" s="5" t="n"/>
-      <c r="G228" s="6" t="n"/>
+      <c r="F228" s="7" t="n"/>
+      <c r="G228" s="8" t="n"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>1"</t>
@@ -5992,10 +5998,10 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
+      <c r="A229" s="5" t="n">
         <v>328</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C229" t="inlineStr">
@@ -6003,8 +6009,8 @@
           <t>DOUBLE BOTTLE RAIL</t>
         </is>
       </c>
-      <c r="F229" s="5" t="n"/>
-      <c r="G229" s="6" t="n"/>
+      <c r="F229" s="7" t="n"/>
+      <c r="G229" s="8" t="n"/>
       <c r="S229" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
@@ -6012,10 +6018,10 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="5" t="n">
         <v>329</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6025,14 +6031,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F230" s="5" t="n"/>
-      <c r="G230" s="6" t="n"/>
+      <c r="F230" s="7" t="n"/>
+      <c r="G230" s="8" t="n"/>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="5" t="n">
         <v>330</v>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6042,14 +6048,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F231" s="5" t="n"/>
-      <c r="G231" s="6" t="n"/>
+      <c r="F231" s="7" t="n"/>
+      <c r="G231" s="8" t="n"/>
     </row>
     <row r="232">
-      <c r="A232" t="n">
+      <c r="A232" s="5" t="n">
         <v>331</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C232" t="inlineStr">
@@ -6057,8 +6063,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F232" s="5" t="n"/>
-      <c r="G232" s="6" t="n"/>
+      <c r="F232" s="7" t="n"/>
+      <c r="G232" s="8" t="n"/>
       <c r="S232" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
@@ -6066,10 +6072,10 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="5" t="n">
         <v>332</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C233" t="inlineStr">
@@ -6077,8 +6083,8 @@
           <t>PREPARATION SINK</t>
         </is>
       </c>
-      <c r="F233" s="5" t="n"/>
-      <c r="G233" s="6" t="n"/>
+      <c r="F233" s="7" t="n"/>
+      <c r="G233" s="8" t="n"/>
       <c r="H233" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -6104,10 +6110,10 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="5" t="n">
         <v>333</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C234" t="inlineStr">
@@ -6121,19 +6127,19 @@
       <c r="E234" t="n">
         <v>1</v>
       </c>
-      <c r="F234" s="5" t="n">
+      <c r="F234" s="7" t="n">
         <v>2.7</v>
       </c>
-      <c r="G234" s="6">
+      <c r="G234" s="8">
         <f>IF(E234&gt;1,(1.732*D234*F234)/1000,(D234*F234)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
+      <c r="A235" s="5" t="n">
         <v>334</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C235" t="inlineStr">
@@ -6147,10 +6153,10 @@
       <c r="E235" t="n">
         <v>1</v>
       </c>
-      <c r="F235" s="5" t="n">
+      <c r="F235" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G235" s="6">
+      <c r="G235" s="8">
         <f>IF(E235&gt;1,(1.732*D235*F235)/1000,(D235*F235)/1000)</f>
         <v/>
       </c>
@@ -6161,12 +6167,12 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
+      <c r="A236" s="5" t="inlineStr">
         <is>
           <t>335- 400</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6176,8 +6182,8 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F236" s="5" t="n"/>
-      <c r="G236" s="6" t="n"/>
+      <c r="F236" s="7" t="n"/>
+      <c r="G236" s="8" t="n"/>
     </row>
     <row r="237">
       <c r="A237" s="3" t="inlineStr">
@@ -6205,10 +6211,10 @@
       <c r="S237" s="4" t="n"/>
     </row>
     <row r="238">
-      <c r="A238" t="n">
+      <c r="A238" s="5" t="n">
         <v>401</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C238" t="inlineStr">
@@ -6216,8 +6222,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F238" s="5" t="n"/>
-      <c r="G238" s="6" t="n"/>
+      <c r="F238" s="7" t="n"/>
+      <c r="G238" s="8" t="n"/>
       <c r="S238" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -6225,10 +6231,10 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
+      <c r="A239" s="5" t="n">
         <v>402</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C239" t="inlineStr">
@@ -6236,8 +6242,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F239" s="5" t="n"/>
-      <c r="G239" s="6" t="n"/>
+      <c r="F239" s="7" t="n"/>
+      <c r="G239" s="8" t="n"/>
       <c r="H239" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -6263,10 +6269,10 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
+      <c r="A240" s="5" t="n">
         <v>403</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C240" t="inlineStr">
@@ -6280,10 +6286,10 @@
       <c r="E240" t="n">
         <v>1</v>
       </c>
-      <c r="F240" s="5" t="n">
+      <c r="F240" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="G240" s="6">
+      <c r="G240" s="8">
         <f>IF(E240&gt;1,(1.732*D240*F240)/1000,(D240*F240)/1000)</f>
         <v/>
       </c>
@@ -6312,10 +6318,10 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
+      <c r="A241" s="5" t="n">
         <v>404</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C241" t="inlineStr">
@@ -6323,8 +6329,8 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F241" s="5" t="n"/>
-      <c r="G241" s="6" t="n"/>
+      <c r="F241" s="7" t="n"/>
+      <c r="G241" s="8" t="n"/>
       <c r="S241" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -6332,10 +6338,10 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
+      <c r="A242" s="5" t="n">
         <v>405</v>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B242" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6345,14 +6351,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F242" s="5" t="n"/>
-      <c r="G242" s="6" t="n"/>
+      <c r="F242" s="7" t="n"/>
+      <c r="G242" s="8" t="n"/>
     </row>
     <row r="243">
-      <c r="A243" t="n">
+      <c r="A243" s="5" t="n">
         <v>406</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C243" t="inlineStr">
@@ -6360,8 +6366,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F243" s="5" t="n"/>
-      <c r="G243" s="6" t="n"/>
+      <c r="F243" s="7" t="n"/>
+      <c r="G243" s="8" t="n"/>
       <c r="S243" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -6369,10 +6375,10 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
+      <c r="A244" s="5" t="n">
         <v>407</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C244" t="inlineStr">
@@ -6386,19 +6392,19 @@
       <c r="E244" t="n">
         <v>1</v>
       </c>
-      <c r="F244" s="5" t="n">
+      <c r="F244" s="7" t="n">
         <v>2.7</v>
       </c>
-      <c r="G244" s="6">
+      <c r="G244" s="8">
         <f>IF(E244&gt;1,(1.732*D244*F244)/1000,(D244*F244)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
+      <c r="A245" s="5" t="n">
         <v>408</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C245" t="inlineStr">
@@ -6412,19 +6418,19 @@
       <c r="E245" t="n">
         <v>1</v>
       </c>
-      <c r="F245" s="5" t="n">
+      <c r="F245" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="G245" s="6">
+      <c r="G245" s="8">
         <f>IF(E245&gt;1,(1.732*D245*F245)/1000,(D245*F245)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
+      <c r="A246" s="5" t="n">
         <v>409</v>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B246" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6434,14 +6440,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F246" s="5" t="n"/>
-      <c r="G246" s="6" t="n"/>
+      <c r="F246" s="7" t="n"/>
+      <c r="G246" s="8" t="n"/>
     </row>
     <row r="247">
-      <c r="A247" t="n">
+      <c r="A247" s="5" t="n">
         <v>410</v>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6451,14 +6457,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F247" s="5" t="n"/>
-      <c r="G247" s="6" t="n"/>
+      <c r="F247" s="7" t="n"/>
+      <c r="G247" s="8" t="n"/>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="5" t="n">
         <v>411</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C248" t="inlineStr">
@@ -6472,19 +6478,19 @@
       <c r="E248" t="n">
         <v>1</v>
       </c>
-      <c r="F248" s="5" t="n">
+      <c r="F248" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G248" s="6">
+      <c r="G248" s="8">
         <f>IF(E248&gt;1,(1.732*D248*F248)/1000,(D248*F248)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" s="5" t="n">
         <v>412</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C249" t="inlineStr">
@@ -6498,10 +6504,10 @@
       <c r="E249" t="n">
         <v>1</v>
       </c>
-      <c r="F249" s="5" t="n">
+      <c r="F249" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G249" s="6">
+      <c r="G249" s="8">
         <f>IF(E249&gt;1,(1.732*D249*F249)/1000,(D249*F249)/1000)</f>
         <v/>
       </c>
@@ -6517,10 +6523,10 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
+      <c r="A250" s="5" t="n">
         <v>413</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C250" t="inlineStr">
@@ -6528,8 +6534,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F250" s="5" t="n"/>
-      <c r="G250" s="6" t="n"/>
+      <c r="F250" s="7" t="n"/>
+      <c r="G250" s="8" t="n"/>
       <c r="S250" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #403</t>
@@ -6537,10 +6543,10 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
+      <c r="A251" s="5" t="n">
         <v>414</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C251" t="inlineStr">
@@ -6554,10 +6560,10 @@
       <c r="E251" t="n">
         <v>1</v>
       </c>
-      <c r="F251" s="5" t="n">
+      <c r="F251" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="G251" s="6">
+      <c r="G251" s="8">
         <f>IF(E251&gt;1,(1.732*D251*F251)/1000,(D251*F251)/1000)</f>
         <v/>
       </c>
@@ -6568,10 +6574,10 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
+      <c r="A252" s="5" t="n">
         <v>415</v>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6581,14 +6587,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F252" s="5" t="n"/>
-      <c r="G252" s="6" t="n"/>
+      <c r="F252" s="7" t="n"/>
+      <c r="G252" s="8" t="n"/>
     </row>
     <row r="253">
-      <c r="A253" t="n">
+      <c r="A253" s="5" t="n">
         <v>416</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C253" t="inlineStr">
@@ -6596,8 +6602,8 @@
           <t>ICE CART</t>
         </is>
       </c>
-      <c r="F253" s="5" t="n"/>
-      <c r="G253" s="6" t="n"/>
+      <c r="F253" s="7" t="n"/>
+      <c r="G253" s="8" t="n"/>
       <c r="S253" t="inlineStr">
         <is>
           <t>MOBILE 250LBS</t>
@@ -6605,10 +6611,10 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="5" t="n">
         <v>417</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C254" t="inlineStr">
@@ -6616,8 +6622,8 @@
           <t>FLOOR TROUGH &amp; GRATE</t>
         </is>
       </c>
-      <c r="F254" s="5" t="n"/>
-      <c r="G254" s="6" t="n"/>
+      <c r="F254" s="7" t="n"/>
+      <c r="G254" s="8" t="n"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>2"</t>
@@ -6630,10 +6636,10 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="5" t="n">
         <v>418</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C255" t="inlineStr">
@@ -6647,10 +6653,10 @@
       <c r="E255" t="n">
         <v>1</v>
       </c>
-      <c r="F255" s="5" t="n">
+      <c r="F255" s="7" t="n">
         <v>11.5</v>
       </c>
-      <c r="G255" s="6">
+      <c r="G255" s="8">
         <f>IF(E255&gt;1,(1.732*D255*F255)/1000,(D255*F255)/1000)</f>
         <v/>
       </c>
@@ -6674,10 +6680,10 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="5" t="n">
         <v>419</v>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6687,14 +6693,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F256" s="5" t="n"/>
-      <c r="G256" s="6" t="n"/>
+      <c r="F256" s="7" t="n"/>
+      <c r="G256" s="8" t="n"/>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="5" t="n">
         <v>420</v>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6704,14 +6710,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F257" s="5" t="n"/>
-      <c r="G257" s="6" t="n"/>
+      <c r="F257" s="7" t="n"/>
+      <c r="G257" s="8" t="n"/>
     </row>
     <row r="258">
-      <c r="A258" t="n">
+      <c r="A258" s="5" t="n">
         <v>421</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C258" t="inlineStr">
@@ -6719,8 +6725,8 @@
           <t>ICE BIN</t>
         </is>
       </c>
-      <c r="F258" s="5" t="n"/>
-      <c r="G258" s="6" t="n"/>
+      <c r="F258" s="7" t="n"/>
+      <c r="G258" s="8" t="n"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>1"</t>
@@ -6733,10 +6739,10 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
+      <c r="A259" s="5" t="n">
         <v>422</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C259" t="inlineStr">
@@ -6750,10 +6756,10 @@
       <c r="E259" t="n">
         <v>1</v>
       </c>
-      <c r="F259" s="5" t="n">
+      <c r="F259" s="7" t="n">
         <v>15.2</v>
       </c>
-      <c r="G259" s="6">
+      <c r="G259" s="8">
         <f>IF(E259&gt;1,(1.732*D259*F259)/1000,(D259*F259)/1000)</f>
         <v/>
       </c>
@@ -6777,10 +6783,10 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="5" t="n">
         <v>423</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C260" t="inlineStr">
@@ -6788,8 +6794,8 @@
           <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F260" s="5" t="n"/>
-      <c r="G260" s="6" t="n"/>
+      <c r="F260" s="7" t="n"/>
+      <c r="G260" s="8" t="n"/>
       <c r="H260" t="inlineStr">
         <is>
           <t>3/4"</t>
@@ -6807,10 +6813,10 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="5" t="n">
         <v>424</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C261" t="inlineStr">
@@ -6818,8 +6824,8 @@
           <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F261" s="5" t="n"/>
-      <c r="G261" s="6" t="n"/>
+      <c r="F261" s="7" t="n"/>
+      <c r="G261" s="8" t="n"/>
       <c r="H261" t="inlineStr">
         <is>
           <t>3/4"</t>
@@ -6837,10 +6843,10 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" s="5" t="n">
         <v>425</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6850,14 +6856,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F262" s="5" t="n"/>
-      <c r="G262" s="6" t="n"/>
+      <c r="F262" s="7" t="n"/>
+      <c r="G262" s="8" t="n"/>
     </row>
     <row r="263">
-      <c r="A263" t="n">
+      <c r="A263" s="5" t="n">
         <v>426</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C263" t="inlineStr">
@@ -6865,8 +6871,8 @@
           <t>PREPARATION TABLE</t>
         </is>
       </c>
-      <c r="F263" s="5" t="n"/>
-      <c r="G263" s="6" t="n"/>
+      <c r="F263" s="7" t="n"/>
+      <c r="G263" s="8" t="n"/>
       <c r="S263" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -6874,10 +6880,10 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
+      <c r="A264" s="5" t="n">
         <v>427</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C264" t="inlineStr">
@@ -6885,8 +6891,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F264" s="5" t="n"/>
-      <c r="G264" s="6" t="n"/>
+      <c r="F264" s="7" t="n"/>
+      <c r="G264" s="8" t="n"/>
       <c r="S264" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -6894,10 +6900,10 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
+      <c r="A265" s="5" t="n">
         <v>428</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C265" t="inlineStr">
@@ -6905,8 +6911,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F265" s="5" t="n"/>
-      <c r="G265" s="6" t="n"/>
+      <c r="F265" s="7" t="n"/>
+      <c r="G265" s="8" t="n"/>
       <c r="H265" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -6932,10 +6938,10 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
+      <c r="A266" s="5" t="n">
         <v>429</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B266" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6945,14 +6951,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F266" s="5" t="n"/>
-      <c r="G266" s="6" t="n"/>
+      <c r="F266" s="7" t="n"/>
+      <c r="G266" s="8" t="n"/>
     </row>
     <row r="267">
-      <c r="A267" t="n">
+      <c r="A267" s="5" t="n">
         <v>430</v>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B267" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6962,14 +6968,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F267" s="5" t="n"/>
-      <c r="G267" s="6" t="n"/>
+      <c r="F267" s="7" t="n"/>
+      <c r="G267" s="8" t="n"/>
     </row>
     <row r="268">
-      <c r="A268" t="n">
+      <c r="A268" s="5" t="n">
         <v>431</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C268" t="inlineStr">
@@ -6983,19 +6989,19 @@
       <c r="E268" t="n">
         <v>1</v>
       </c>
-      <c r="F268" s="5" t="n">
+      <c r="F268" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G268" s="6">
+      <c r="G268" s="8">
         <f>IF(E268&gt;1,(1.732*D268*F268)/1000,(D268*F268)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
+      <c r="A269" s="5" t="n">
         <v>432</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C269" t="inlineStr">
@@ -7003,8 +7009,8 @@
           <t>FLOOR TROUGH &amp; GRATE</t>
         </is>
       </c>
-      <c r="F269" s="5" t="n"/>
-      <c r="G269" s="6" t="n"/>
+      <c r="F269" s="7" t="n"/>
+      <c r="G269" s="8" t="n"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>2"</t>
@@ -7017,10 +7023,10 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
+      <c r="A270" s="5" t="n">
         <v>433</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C270" t="inlineStr">
@@ -7034,10 +7040,10 @@
       <c r="E270" t="n">
         <v>1</v>
       </c>
-      <c r="F270" s="5" t="n">
+      <c r="F270" s="7" t="n">
         <v>9.1</v>
       </c>
-      <c r="G270" s="6">
+      <c r="G270" s="8">
         <f>IF(E270&gt;1,(1.732*D270*F270)/1000,(D270*F270)/1000)</f>
         <v/>
       </c>
@@ -7053,10 +7059,10 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
+      <c r="A271" s="5" t="n">
         <v>434</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271" s="6" t="n">
         <v>6</v>
       </c>
       <c r="C271" t="inlineStr">
@@ -7064,8 +7070,8 @@
           <t>FREEZER STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F271" s="5" t="n"/>
-      <c r="G271" s="6" t="n"/>
+      <c r="F271" s="7" t="n"/>
+      <c r="G271" s="8" t="n"/>
       <c r="S271" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -7073,10 +7079,10 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="n">
+      <c r="A272" s="5" t="n">
         <v>435</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C272" t="inlineStr">
@@ -7090,10 +7096,10 @@
       <c r="E272" t="n">
         <v>3</v>
       </c>
-      <c r="F272" s="5" t="n">
+      <c r="F272" s="7" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="G272" s="6">
+      <c r="G272" s="8">
         <f>IF(E272&gt;1,(1.732*D272*F272)/1000,(D272*F272)/1000)</f>
         <v/>
       </c>
@@ -7117,10 +7123,10 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="n">
+      <c r="A273" s="5" t="n">
         <v>436</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C273" t="inlineStr">
@@ -7134,10 +7140,10 @@
       <c r="E273" t="n">
         <v>1</v>
       </c>
-      <c r="F273" s="5" t="n">
+      <c r="F273" s="7" t="n">
         <v>17.8</v>
       </c>
-      <c r="G273" s="6">
+      <c r="G273" s="8">
         <f>IF(E273&gt;1,(1.732*D273*F273)/1000,(D273*F273)/1000)</f>
         <v/>
       </c>
@@ -7153,10 +7159,10 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
+      <c r="A274" s="5" t="n">
         <v>437</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C274" t="inlineStr">
@@ -7164,8 +7170,8 @@
           <t>FLOOR TROUGH &amp; GRATE</t>
         </is>
       </c>
-      <c r="F274" s="5" t="n"/>
-      <c r="G274" s="6" t="n"/>
+      <c r="F274" s="7" t="n"/>
+      <c r="G274" s="8" t="n"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>2"</t>
@@ -7178,10 +7184,10 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
+      <c r="A275" s="5" t="n">
         <v>438</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C275" t="inlineStr">
@@ -7195,19 +7201,19 @@
       <c r="E275" t="n">
         <v>1</v>
       </c>
-      <c r="F275" s="5" t="n">
+      <c r="F275" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G275" s="6">
+      <c r="G275" s="8">
         <f>IF(E275&gt;1,(1.732*D275*F275)/1000,(D275*F275)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
+      <c r="A276" s="5" t="n">
         <v>439</v>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7217,14 +7223,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F276" s="5" t="n"/>
-      <c r="G276" s="6" t="n"/>
+      <c r="F276" s="7" t="n"/>
+      <c r="G276" s="8" t="n"/>
     </row>
     <row r="277">
-      <c r="A277" t="n">
+      <c r="A277" s="5" t="n">
         <v>440</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C277" t="inlineStr">
@@ -7238,10 +7244,10 @@
       <c r="E277" t="n">
         <v>3</v>
       </c>
-      <c r="F277" s="5" t="n">
+      <c r="F277" s="7" t="n">
         <v>7.2</v>
       </c>
-      <c r="G277" s="6">
+      <c r="G277" s="8">
         <f>IF(E277&gt;1,(1.732*D277*F277)/1000,(D277*F277)/1000)</f>
         <v/>
       </c>
@@ -7265,10 +7271,10 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="n">
+      <c r="A278" s="5" t="n">
         <v>441</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C278" t="inlineStr">
@@ -7282,10 +7288,10 @@
       <c r="E278" t="n">
         <v>1</v>
       </c>
-      <c r="F278" s="5" t="n">
+      <c r="F278" s="7" t="n">
         <v>1.8</v>
       </c>
-      <c r="G278" s="6">
+      <c r="G278" s="8">
         <f>IF(E278&gt;1,(1.732*D278*F278)/1000,(D278*F278)/1000)</f>
         <v/>
       </c>
@@ -7301,10 +7307,10 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="n">
+      <c r="A279" s="5" t="n">
         <v>442</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279" s="6" t="n">
         <v>8</v>
       </c>
       <c r="C279" t="inlineStr">
@@ -7312,8 +7318,8 @@
           <t>COOLER STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F279" s="5" t="n"/>
-      <c r="G279" s="6" t="n"/>
+      <c r="F279" s="7" t="n"/>
+      <c r="G279" s="8" t="n"/>
       <c r="S279" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -7321,10 +7327,10 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="n">
+      <c r="A280" s="5" t="n">
         <v>443</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C280" t="inlineStr">
@@ -7332,8 +7338,8 @@
           <t>UTILITY RACK</t>
         </is>
       </c>
-      <c r="F280" s="5" t="n"/>
-      <c r="G280" s="6" t="n"/>
+      <c r="F280" s="7" t="n"/>
+      <c r="G280" s="8" t="n"/>
       <c r="S280" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -7341,10 +7347,10 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="n">
+      <c r="A281" s="5" t="n">
         <v>444</v>
       </c>
-      <c r="B281" t="inlineStr">
+      <c r="B281" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7354,16 +7360,16 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F281" s="5" t="n"/>
-      <c r="G281" s="6" t="n"/>
+      <c r="F281" s="7" t="n"/>
+      <c r="G281" s="8" t="n"/>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
+      <c r="A282" s="5" t="inlineStr">
         <is>
           <t>445- 500</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="B282" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7373,39 +7379,39 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F282" s="5" t="n"/>
-      <c r="G282" s="6" t="n"/>
+      <c r="F282" s="7" t="n"/>
+      <c r="G282" s="8" t="n"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr"/>
     </row>
     <row r="284">
-      <c r="A284" s="7" t="inlineStr">
+      <c r="A284" s="9" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G284" s="8">
+      <c r="G284" s="10">
         <f>SUM(G7:G283)</f>
         <v/>
       </c>
-      <c r="J284" s="8">
+      <c r="J284" s="10">
         <f>SUM(J7:J283)</f>
         <v/>
       </c>
-      <c r="M284" s="8">
+      <c r="M284" s="10">
         <f>SUM(M7:M283)</f>
         <v/>
       </c>
-      <c r="N284" s="8">
+      <c r="N284" s="10">
         <f>SUM(N7:N283)</f>
         <v/>
       </c>
-      <c r="O284" s="8">
+      <c r="O284" s="10">
         <f>SUM(O7:O283)</f>
         <v/>
       </c>
-      <c r="P284" s="8">
+      <c r="P284" s="10">
         <f>SUM(P7:P283)</f>
         <v/>
       </c>

--- a/Bulk Loads/1523/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/1523/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -69,7 +69,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -83,6 +83,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -478,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:S284"/>
   <sheetViews>
@@ -499,6 +502,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1"/>
@@ -513,7 +517,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 29, 2024</t>
+          <t>September 18, 2024</t>
         </is>
       </c>
     </row>
@@ -657,7 +661,7 @@
       </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -695,7 +699,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -717,6 +721,7 @@
       </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
+      <c r="S11" s="9" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -732,7 +737,7 @@
       </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
-      <c r="S12" t="inlineStr">
+      <c r="S12" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -754,6 +759,7 @@
       </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
+      <c r="S13" s="9" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -769,7 +775,7 @@
       </c>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
-      <c r="S14" t="inlineStr">
+      <c r="S14" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -789,7 +795,7 @@
       </c>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
-      <c r="S15" t="inlineStr">
+      <c r="S15" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -838,7 +844,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S16" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -860,6 +866,7 @@
       </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
+      <c r="S17" s="9" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -877,6 +884,7 @@
       </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
+      <c r="S18" s="9" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -928,7 +936,7 @@
         <f>IF(E20&gt;1,(1.732*D20*F20)/1000,(D20*F20)/1000)</f>
         <v/>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="S20" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -959,7 +967,7 @@
         <f>IF(E21&gt;1,(1.732*D21*F21)/1000,(D21*F21)/1000)</f>
         <v/>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="S21" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -979,7 +987,7 @@
       </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
-      <c r="S22" t="inlineStr">
+      <c r="S22" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #26</t>
         </is>
@@ -1015,7 +1023,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="S23" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM#26</t>
         </is>
@@ -1037,6 +1045,7 @@
       </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
+      <c r="S24" s="9" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -1063,6 +1072,7 @@
         <f>IF(E25&gt;1,(1.732*D25*F25)/1000,(D25*F25)/1000)</f>
         <v/>
       </c>
+      <c r="S25" s="9" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -1078,7 +1088,7 @@
       </c>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
-      <c r="S26" t="inlineStr">
+      <c r="S26" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1109,6 +1119,7 @@
         <f>IF(E27&gt;1,(1.732*D27*F27)/1000,(D27*F27)/1000)</f>
         <v/>
       </c>
+      <c r="S27" s="9" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -1126,6 +1137,7 @@
       </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
+      <c r="S28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -1143,6 +1155,7 @@
       </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
+      <c r="S29" s="9" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -1169,6 +1182,7 @@
         <f>IF(E30&gt;1,(1.732*D30*F30)/1000,(D30*F30)/1000)</f>
         <v/>
       </c>
+      <c r="S30" s="9" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -1184,7 +1198,7 @@
       </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="8" t="n"/>
-      <c r="S31" t="inlineStr">
+      <c r="S31" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #26</t>
         </is>
@@ -1204,7 +1218,7 @@
       </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
-      <c r="S32" t="inlineStr">
+      <c r="S32" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -1242,7 +1256,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="S33" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -1264,6 +1278,7 @@
       </c>
       <c r="F34" s="7" t="n"/>
       <c r="G34" s="8" t="n"/>
+      <c r="S34" s="9" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -1308,7 +1323,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="S35" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1339,6 +1354,7 @@
         <f>IF(E36&gt;1,(1.732*D36*F36)/1000,(D36*F36)/1000)</f>
         <v/>
       </c>
+      <c r="S36" s="9" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -1359,7 +1375,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="S37" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1381,6 +1397,7 @@
       </c>
       <c r="F38" s="7" t="n"/>
       <c r="G38" s="8" t="n"/>
+      <c r="S38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -1398,6 +1415,7 @@
       </c>
       <c r="F39" s="7" t="n"/>
       <c r="G39" s="8" t="n"/>
+      <c r="S39" s="9" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -1413,7 +1431,7 @@
       </c>
       <c r="F40" s="7" t="n"/>
       <c r="G40" s="8" t="n"/>
-      <c r="S40" t="inlineStr">
+      <c r="S40" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -1449,7 +1467,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="S41" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -1493,7 +1511,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="S42" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -1515,6 +1533,7 @@
       </c>
       <c r="F43" s="7" t="n"/>
       <c r="G43" s="8" t="n"/>
+      <c r="S43" s="9" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="inlineStr">
@@ -1534,6 +1553,7 @@
       </c>
       <c r="F44" s="7" t="n"/>
       <c r="G44" s="8" t="n"/>
+      <c r="S44" s="9" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
@@ -1585,7 +1605,7 @@
         <f>IF(E46&gt;1,(1.732*D46*F46)/1000,(D46*F46)/1000)</f>
         <v/>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="S46" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH GRANITE TOP</t>
         </is>
@@ -1623,7 +1643,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="S47" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -1643,7 +1663,7 @@
       </c>
       <c r="F48" s="7" t="n"/>
       <c r="G48" s="8" t="n"/>
-      <c r="S48" t="inlineStr">
+      <c r="S48" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -1663,7 +1683,7 @@
       </c>
       <c r="F49" s="7" t="n"/>
       <c r="G49" s="8" t="n"/>
-      <c r="S49" t="inlineStr">
+      <c r="S49" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #41</t>
         </is>
@@ -1685,6 +1705,7 @@
       </c>
       <c r="F50" s="7" t="n"/>
       <c r="G50" s="8" t="n"/>
+      <c r="S50" s="9" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
@@ -1711,6 +1732,7 @@
         <f>IF(E51&gt;1,(1.732*D51*F51)/1000,(D51*F51)/1000)</f>
         <v/>
       </c>
+      <c r="S51" s="9" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
@@ -1737,6 +1759,7 @@
         <f>IF(E52&gt;1,(1.732*D52*F52)/1000,(D52*F52)/1000)</f>
         <v/>
       </c>
+      <c r="S52" s="9" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
@@ -1763,6 +1786,7 @@
         <f>IF(E53&gt;1,(1.732*D53*F53)/1000,(D53*F53)/1000)</f>
         <v/>
       </c>
+      <c r="S53" s="9" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
@@ -1780,6 +1804,7 @@
       </c>
       <c r="F54" s="7" t="n"/>
       <c r="G54" s="8" t="n"/>
+      <c r="S54" s="9" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="5" t="n">
@@ -1797,6 +1822,7 @@
       </c>
       <c r="F55" s="7" t="n"/>
       <c r="G55" s="8" t="n"/>
+      <c r="S55" s="9" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="5" t="n">
@@ -1828,7 +1854,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr">
+      <c r="S56" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM#41</t>
         </is>
@@ -1848,7 +1874,7 @@
       </c>
       <c r="F57" s="7" t="n"/>
       <c r="G57" s="8" t="n"/>
-      <c r="S57" t="inlineStr">
+      <c r="S57" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1868,7 +1894,7 @@
       </c>
       <c r="F58" s="7" t="n"/>
       <c r="G58" s="8" t="n"/>
-      <c r="S58" t="inlineStr">
+      <c r="S58" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #41</t>
         </is>
@@ -1890,6 +1916,7 @@
       </c>
       <c r="F59" s="7" t="n"/>
       <c r="G59" s="8" t="n"/>
+      <c r="S59" s="9" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="5" t="inlineStr">
@@ -1909,6 +1936,7 @@
       </c>
       <c r="F60" s="7" t="n"/>
       <c r="G60" s="8" t="n"/>
+      <c r="S60" s="9" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
@@ -1968,7 +1996,7 @@
       <c r="O62" t="n">
         <v>614</v>
       </c>
-      <c r="S62" t="inlineStr">
+      <c r="S62" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -2007,7 +2035,7 @@
       <c r="O63" t="n">
         <v>1020</v>
       </c>
-      <c r="S63" t="inlineStr">
+      <c r="S63" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -2046,7 +2074,7 @@
       <c r="O64" t="n">
         <v>2217</v>
       </c>
-      <c r="S64" t="inlineStr">
+      <c r="S64" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -2066,6 +2094,7 @@
       </c>
       <c r="F65" s="7" t="n"/>
       <c r="G65" s="8" t="n"/>
+      <c r="S65" s="9" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
@@ -2084,6 +2113,7 @@
       <c r="M66" t="n">
         <v>122000</v>
       </c>
+      <c r="S66" s="9" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="5" t="n">
@@ -2099,6 +2129,7 @@
       </c>
       <c r="F67" s="7" t="n"/>
       <c r="G67" s="8" t="n"/>
+      <c r="S67" s="9" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="5" t="n">
@@ -2116,6 +2147,7 @@
       </c>
       <c r="F68" s="7" t="n"/>
       <c r="G68" s="8" t="n"/>
+      <c r="S68" s="9" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="5" t="n">
@@ -2134,6 +2166,7 @@
       <c r="M69" t="n">
         <v>90000</v>
       </c>
+      <c r="S69" s="9" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="5" t="n">
@@ -2160,7 +2193,7 @@
         <f>IF(E70&gt;1,(1.732*D70*F70)/1000,(D70*F70)/1000)</f>
         <v/>
       </c>
-      <c r="S70" t="inlineStr">
+      <c r="S70" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -2180,7 +2213,7 @@
       </c>
       <c r="F71" s="7" t="n"/>
       <c r="G71" s="8" t="n"/>
-      <c r="S71" t="inlineStr">
+      <c r="S71" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2202,6 +2235,7 @@
       </c>
       <c r="F72" s="7" t="n"/>
       <c r="G72" s="8" t="n"/>
+      <c r="S72" s="9" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="5" t="n">
@@ -2219,6 +2253,7 @@
       </c>
       <c r="F73" s="7" t="n"/>
       <c r="G73" s="8" t="n"/>
+      <c r="S73" s="9" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="5" t="n">
@@ -2237,6 +2272,7 @@
       <c r="M74" t="n">
         <v>60000</v>
       </c>
+      <c r="S74" s="9" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="5" t="n">
@@ -2255,6 +2291,7 @@
       <c r="M75" t="n">
         <v>35000</v>
       </c>
+      <c r="S75" s="9" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="5" t="n">
@@ -2283,6 +2320,7 @@
       <c r="J76" t="n">
         <v>30</v>
       </c>
+      <c r="S76" s="9" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="5" t="n">
@@ -2309,7 +2347,7 @@
         <f>IF(E77&gt;1,(1.732*D77*F77)/1000,(D77*F77)/1000)</f>
         <v/>
       </c>
-      <c r="S77" t="inlineStr">
+      <c r="S77" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -2331,6 +2369,7 @@
       </c>
       <c r="F78" s="7" t="n"/>
       <c r="G78" s="8" t="n"/>
+      <c r="S78" s="9" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="5" t="n">
@@ -2349,6 +2388,7 @@
       <c r="M79" t="n">
         <v>210000</v>
       </c>
+      <c r="S79" s="9" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="5" t="n">
@@ -2388,7 +2428,7 @@
       <c r="M80" t="n">
         <v>82000</v>
       </c>
-      <c r="S80" t="inlineStr">
+      <c r="S80" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -2426,7 +2466,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S81" t="inlineStr">
+      <c r="S81" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -2448,6 +2488,7 @@
       </c>
       <c r="F82" s="7" t="n"/>
       <c r="G82" s="8" t="n"/>
+      <c r="S82" s="9" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="5" t="n">
@@ -2465,6 +2506,7 @@
       </c>
       <c r="F83" s="7" t="n"/>
       <c r="G83" s="8" t="n"/>
+      <c r="S83" s="9" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="5" t="n">
@@ -2480,7 +2522,7 @@
       </c>
       <c r="F84" s="7" t="n"/>
       <c r="G84" s="8" t="n"/>
-      <c r="S84" t="inlineStr">
+      <c r="S84" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -2511,7 +2553,7 @@
         <f>IF(E85&gt;1,(1.732*D85*F85)/1000,(D85*F85)/1000)</f>
         <v/>
       </c>
-      <c r="S85" t="inlineStr">
+      <c r="S85" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #61L #61M &amp; 61R</t>
         </is>
@@ -2542,7 +2584,7 @@
         <f>IF(E86&gt;1,(1.732*D86*F86)/1000,(D86*F86)/1000)</f>
         <v/>
       </c>
-      <c r="S86" t="inlineStr">
+      <c r="S86" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #61L #61M &amp; 61R</t>
         </is>
@@ -2578,7 +2620,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S87" t="inlineStr">
+      <c r="S87" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM#101</t>
         </is>
@@ -2600,6 +2642,7 @@
       </c>
       <c r="F88" s="7" t="n"/>
       <c r="G88" s="8" t="n"/>
+      <c r="S88" s="9" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="5" t="n">
@@ -2631,7 +2674,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S89" t="inlineStr">
+      <c r="S89" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS AND NSF7 RAIL PART OF ITEM#101</t>
         </is>
@@ -2651,7 +2694,7 @@
       </c>
       <c r="F90" s="7" t="n"/>
       <c r="G90" s="8" t="n"/>
-      <c r="S90" t="inlineStr">
+      <c r="S90" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #101</t>
         </is>
@@ -2687,7 +2730,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S91" t="inlineStr">
+      <c r="S91" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS AND NSF7 RAIL PART OF ITEM#101</t>
         </is>
@@ -2709,6 +2752,7 @@
       </c>
       <c r="F92" s="7" t="n"/>
       <c r="G92" s="8" t="n"/>
+      <c r="S92" s="9" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="5" t="n">
@@ -2726,6 +2770,7 @@
       </c>
       <c r="F93" s="7" t="n"/>
       <c r="G93" s="8" t="n"/>
+      <c r="S93" s="9" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="5" t="n">
@@ -2741,7 +2786,7 @@
       </c>
       <c r="F94" s="7" t="n"/>
       <c r="G94" s="8" t="n"/>
-      <c r="S94" t="inlineStr">
+      <c r="S94" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #101</t>
         </is>
@@ -2777,7 +2822,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S95" t="inlineStr">
+      <c r="S95" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS AND NSF7 RAIL PART OF ITEM#101</t>
         </is>
@@ -2797,7 +2842,7 @@
       </c>
       <c r="F96" s="7" t="n"/>
       <c r="G96" s="8" t="n"/>
-      <c r="S96" t="inlineStr">
+      <c r="S96" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #101</t>
         </is>
@@ -2828,7 +2873,7 @@
         <f>IF(E97&gt;1,(1.732*D97*F97)/1000,(D97*F97)/1000)</f>
         <v/>
       </c>
-      <c r="S97" t="inlineStr">
+      <c r="S97" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2850,6 +2895,7 @@
       </c>
       <c r="F98" s="7" t="n"/>
       <c r="G98" s="8" t="n"/>
+      <c r="S98" s="9" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="5" t="n">
@@ -2876,7 +2922,7 @@
         <f>IF(E99&gt;1,(1.732*D99*F99)/1000,(D99*F99)/1000)</f>
         <v/>
       </c>
-      <c r="S99" t="inlineStr">
+      <c r="S99" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2896,7 +2942,7 @@
       </c>
       <c r="F100" s="7" t="n"/>
       <c r="G100" s="8" t="n"/>
-      <c r="S100" t="inlineStr">
+      <c r="S100" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -2916,7 +2962,7 @@
       </c>
       <c r="F101" s="7" t="n"/>
       <c r="G101" s="8" t="n"/>
-      <c r="S101" t="inlineStr">
+      <c r="S101" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #101</t>
         </is>
@@ -2938,6 +2984,7 @@
       </c>
       <c r="F102" s="7" t="n"/>
       <c r="G102" s="8" t="n"/>
+      <c r="S102" s="9" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="5" t="n">
@@ -2955,6 +3002,7 @@
       </c>
       <c r="F103" s="7" t="n"/>
       <c r="G103" s="8" t="n"/>
+      <c r="S103" s="9" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="5" t="n">
@@ -2999,7 +3047,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S104" t="inlineStr">
+      <c r="S104" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH PLATE STORAGE</t>
         </is>
@@ -3021,6 +3069,7 @@
       </c>
       <c r="F105" s="7" t="n"/>
       <c r="G105" s="8" t="n"/>
+      <c r="S105" s="9" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="5" t="n">
@@ -3038,6 +3087,7 @@
       </c>
       <c r="F106" s="7" t="n"/>
       <c r="G106" s="8" t="n"/>
+      <c r="S106" s="9" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="5" t="n">
@@ -3055,6 +3105,7 @@
       </c>
       <c r="F107" s="7" t="n"/>
       <c r="G107" s="8" t="n"/>
+      <c r="S107" s="9" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="5" t="inlineStr">
@@ -3074,6 +3125,7 @@
       </c>
       <c r="F108" s="7" t="n"/>
       <c r="G108" s="8" t="n"/>
+      <c r="S108" s="9" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
@@ -3125,7 +3177,7 @@
         <f>IF(E110&gt;1,(1.732*D110*F110)/1000,(D110*F110)/1000)</f>
         <v/>
       </c>
-      <c r="S110" t="inlineStr">
+      <c r="S110" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3163,7 +3215,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S111" t="inlineStr">
+      <c r="S111" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATIONWITH SOAP AND TOWEL DISPENSER PART OF ITEM #201</t>
         </is>
@@ -3183,7 +3235,7 @@
       </c>
       <c r="F112" s="7" t="n"/>
       <c r="G112" s="8" t="n"/>
-      <c r="S112" t="inlineStr">
+      <c r="S112" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #201</t>
         </is>
@@ -3203,7 +3255,7 @@
       </c>
       <c r="F113" s="7" t="n"/>
       <c r="G113" s="8" t="n"/>
-      <c r="S113" t="inlineStr">
+      <c r="S113" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #201</t>
         </is>
@@ -3234,7 +3286,7 @@
         <f>IF(E114&gt;1,(1.732*D114*F114)/1000,(D114*F114)/1000)</f>
         <v/>
       </c>
-      <c r="S114" t="inlineStr">
+      <c r="S114" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #201</t>
         </is>
@@ -3265,6 +3317,7 @@
         <f>IF(E115&gt;1,(1.732*D115*F115)/1000,(D115*F115)/1000)</f>
         <v/>
       </c>
+      <c r="S115" s="9" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="5" t="n">
@@ -3280,7 +3333,7 @@
       </c>
       <c r="F116" s="7" t="n"/>
       <c r="G116" s="8" t="n"/>
-      <c r="S116" t="inlineStr">
+      <c r="S116" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #201</t>
         </is>
@@ -3316,7 +3369,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S117" t="inlineStr">
+      <c r="S117" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH PAN SLIDES PART OF ITEM #201</t>
         </is>
@@ -3338,6 +3391,7 @@
       </c>
       <c r="F118" s="7" t="n"/>
       <c r="G118" s="8" t="n"/>
+      <c r="S118" s="9" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="5" t="n">
@@ -3355,6 +3409,7 @@
       </c>
       <c r="F119" s="7" t="n"/>
       <c r="G119" s="8" t="n"/>
+      <c r="S119" s="9" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="5" t="n">
@@ -3386,7 +3441,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S120" t="inlineStr">
+      <c r="S120" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #201</t>
         </is>
@@ -3406,7 +3461,7 @@
       </c>
       <c r="F121" s="7" t="n"/>
       <c r="G121" s="8" t="n"/>
-      <c r="S121" t="inlineStr">
+      <c r="S121" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #201</t>
         </is>
@@ -3442,7 +3497,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S122" t="inlineStr">
+      <c r="S122" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #201</t>
         </is>
@@ -3462,7 +3517,7 @@
       </c>
       <c r="F123" s="7" t="n"/>
       <c r="G123" s="8" t="n"/>
-      <c r="S123" t="inlineStr">
+      <c r="S123" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #201</t>
         </is>
@@ -3484,6 +3539,7 @@
       </c>
       <c r="F124" s="7" t="n"/>
       <c r="G124" s="8" t="n"/>
+      <c r="S124" s="9" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="5" t="n">
@@ -3520,7 +3576,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S125" t="inlineStr">
+      <c r="S125" s="9" t="inlineStr">
         <is>
           <t>400LB. AIR-COOLED FLAKE ICE</t>
         </is>
@@ -3540,7 +3596,7 @@
       </c>
       <c r="F126" s="7" t="n"/>
       <c r="G126" s="8" t="n"/>
-      <c r="S126" t="inlineStr">
+      <c r="S126" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -3568,7 +3624,7 @@
       <c r="J127" t="n">
         <v>10</v>
       </c>
-      <c r="S127" t="inlineStr">
+      <c r="S127" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #216</t>
         </is>
@@ -3590,6 +3646,7 @@
       </c>
       <c r="F128" s="7" t="n"/>
       <c r="G128" s="8" t="n"/>
+      <c r="S128" s="9" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="5" t="n">
@@ -3607,6 +3664,7 @@
       </c>
       <c r="F129" s="7" t="n"/>
       <c r="G129" s="8" t="n"/>
+      <c r="S129" s="9" t="n"/>
     </row>
     <row r="130">
       <c r="A130" s="5" t="n">
@@ -3622,7 +3680,7 @@
       </c>
       <c r="F130" s="7" t="n"/>
       <c r="G130" s="8" t="n"/>
-      <c r="S130" t="inlineStr">
+      <c r="S130" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3653,6 +3711,7 @@
         <f>IF(E131&gt;1,(1.732*D131*F131)/1000,(D131*F131)/1000)</f>
         <v/>
       </c>
+      <c r="S131" s="9" t="n"/>
     </row>
     <row r="132">
       <c r="A132" s="5" t="n">
@@ -3668,7 +3727,7 @@
       </c>
       <c r="F132" s="7" t="n"/>
       <c r="G132" s="8" t="n"/>
-      <c r="S132" t="inlineStr">
+      <c r="S132" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -3704,7 +3763,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S133" t="inlineStr">
+      <c r="S133" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH PAN SLIDES PART OF ITEM #221</t>
         </is>
@@ -3726,6 +3785,7 @@
       </c>
       <c r="F134" s="7" t="n"/>
       <c r="G134" s="8" t="n"/>
+      <c r="S134" s="9" t="n"/>
     </row>
     <row r="135">
       <c r="A135" s="5" t="n">
@@ -3741,7 +3801,7 @@
       </c>
       <c r="F135" s="7" t="n"/>
       <c r="G135" s="8" t="n"/>
-      <c r="S135" t="inlineStr">
+      <c r="S135" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #221</t>
         </is>
@@ -3772,6 +3832,7 @@
         <f>IF(E136&gt;1,(1.732*D136*F136)/1000,(D136*F136)/1000)</f>
         <v/>
       </c>
+      <c r="S136" s="9" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="5" t="n">
@@ -3805,7 +3866,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S137" t="inlineStr">
+      <c r="S137" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #221</t>
         </is>
@@ -3827,6 +3888,7 @@
       </c>
       <c r="F138" s="7" t="n"/>
       <c r="G138" s="8" t="n"/>
+      <c r="S138" s="9" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="5" t="n">
@@ -3844,6 +3906,7 @@
       </c>
       <c r="F139" s="7" t="n"/>
       <c r="G139" s="8" t="n"/>
+      <c r="S139" s="9" t="n"/>
     </row>
     <row r="140">
       <c r="A140" s="5" t="n">
@@ -3875,7 +3938,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S140" t="inlineStr">
+      <c r="S140" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH PAN SLIDES PART OF ITEM #221</t>
         </is>
@@ -3895,7 +3958,7 @@
       </c>
       <c r="F141" s="7" t="n"/>
       <c r="G141" s="8" t="n"/>
-      <c r="S141" t="inlineStr">
+      <c r="S141" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #221</t>
         </is>
@@ -3926,6 +3989,7 @@
         <f>IF(E142&gt;1,(1.732*D142*F142)/1000,(D142*F142)/1000)</f>
         <v/>
       </c>
+      <c r="S142" s="9" t="n"/>
     </row>
     <row r="143">
       <c r="A143" s="5" t="n">
@@ -3952,6 +4016,7 @@
         <f>IF(E143&gt;1,(1.732*D143*F143)/1000,(D143*F143)/1000)</f>
         <v/>
       </c>
+      <c r="S143" s="9" t="n"/>
     </row>
     <row r="144">
       <c r="A144" s="5" t="n">
@@ -3969,6 +4034,7 @@
       </c>
       <c r="F144" s="7" t="n"/>
       <c r="G144" s="8" t="n"/>
+      <c r="S144" s="9" t="n"/>
     </row>
     <row r="145">
       <c r="A145" s="5" t="n">
@@ -3984,7 +4050,7 @@
       </c>
       <c r="F145" s="7" t="n"/>
       <c r="G145" s="8" t="n"/>
-      <c r="S145" t="inlineStr">
+      <c r="S145" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -4020,7 +4086,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S146" t="inlineStr">
+      <c r="S146" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH PAN SLIDES PART OF ITEM #221</t>
         </is>
@@ -4040,7 +4106,7 @@
       </c>
       <c r="F147" s="7" t="n"/>
       <c r="G147" s="8" t="n"/>
-      <c r="S147" t="inlineStr">
+      <c r="S147" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #221</t>
         </is>
@@ -4062,6 +4128,7 @@
       </c>
       <c r="F148" s="7" t="n"/>
       <c r="G148" s="8" t="n"/>
+      <c r="S148" s="9" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="5" t="n">
@@ -4079,6 +4146,7 @@
       </c>
       <c r="F149" s="7" t="n"/>
       <c r="G149" s="8" t="n"/>
+      <c r="S149" s="9" t="n"/>
     </row>
     <row r="150">
       <c r="A150" s="5" t="n">
@@ -4105,6 +4173,7 @@
         <f>IF(E150&gt;1,(1.732*D150*F150)/1000,(D150*F150)/1000)</f>
         <v/>
       </c>
+      <c r="S150" s="9" t="n"/>
     </row>
     <row r="151">
       <c r="A151" s="5" t="n">
@@ -4138,7 +4207,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S151" t="inlineStr">
+      <c r="S151" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #221</t>
         </is>
@@ -4174,7 +4243,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S152" t="inlineStr">
+      <c r="S152" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH PAN SLIDES PART OF ITEM #221</t>
         </is>
@@ -4194,7 +4263,7 @@
       </c>
       <c r="F153" s="7" t="n"/>
       <c r="G153" s="8" t="n"/>
-      <c r="S153" t="inlineStr">
+      <c r="S153" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #221</t>
         </is>
@@ -4216,6 +4285,7 @@
       </c>
       <c r="F154" s="7" t="n"/>
       <c r="G154" s="8" t="n"/>
+      <c r="S154" s="9" t="n"/>
     </row>
     <row r="155">
       <c r="A155" s="5" t="n">
@@ -4242,6 +4312,7 @@
         <f>IF(E155&gt;1,(1.732*D155*F155)/1000,(D155*F155)/1000)</f>
         <v/>
       </c>
+      <c r="S155" s="9" t="n"/>
     </row>
     <row r="156">
       <c r="A156" s="5" t="n">
@@ -4257,7 +4328,7 @@
       </c>
       <c r="F156" s="7" t="n"/>
       <c r="G156" s="8" t="n"/>
-      <c r="S156" t="inlineStr">
+      <c r="S156" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -4288,6 +4359,7 @@
         <f>IF(E157&gt;1,(1.732*D157*F157)/1000,(D157*F157)/1000)</f>
         <v/>
       </c>
+      <c r="S157" s="9" t="n"/>
     </row>
     <row r="158">
       <c r="A158" s="5" t="n">
@@ -4305,6 +4377,7 @@
       </c>
       <c r="F158" s="7" t="n"/>
       <c r="G158" s="8" t="n"/>
+      <c r="S158" s="9" t="n"/>
     </row>
     <row r="159">
       <c r="A159" s="5" t="n">
@@ -4322,6 +4395,7 @@
       </c>
       <c r="F159" s="7" t="n"/>
       <c r="G159" s="8" t="n"/>
+      <c r="S159" s="9" t="n"/>
     </row>
     <row r="160">
       <c r="A160" s="5" t="n">
@@ -4348,7 +4422,7 @@
         <f>IF(E160&gt;1,(1.732*D160*F160)/1000,(D160*F160)/1000)</f>
         <v/>
       </c>
-      <c r="S160" t="inlineStr">
+      <c r="S160" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -4384,7 +4458,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S161" t="inlineStr">
+      <c r="S161" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION REMOTE REFRIGERATION PART OF ITEM #221</t>
         </is>
@@ -4406,6 +4480,7 @@
       </c>
       <c r="F162" s="7" t="n"/>
       <c r="G162" s="8" t="n"/>
+      <c r="S162" s="9" t="n"/>
     </row>
     <row r="163">
       <c r="A163" s="5" t="n">
@@ -4423,6 +4498,7 @@
       </c>
       <c r="F163" s="7" t="n"/>
       <c r="G163" s="8" t="n"/>
+      <c r="S163" s="9" t="n"/>
     </row>
     <row r="164">
       <c r="A164" s="5" t="inlineStr">
@@ -4442,6 +4518,7 @@
       </c>
       <c r="F164" s="7" t="n"/>
       <c r="G164" s="8" t="n"/>
+      <c r="S164" s="9" t="n"/>
     </row>
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
@@ -4482,7 +4559,7 @@
       </c>
       <c r="F166" s="7" t="n"/>
       <c r="G166" s="8" t="n"/>
-      <c r="S166" t="inlineStr">
+      <c r="S166" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4502,7 +4579,7 @@
       </c>
       <c r="F167" s="7" t="n"/>
       <c r="G167" s="8" t="n"/>
-      <c r="S167" t="inlineStr">
+      <c r="S167" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #287</t>
         </is>
@@ -4538,7 +4615,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S168" t="inlineStr">
+      <c r="S168" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #287</t>
         </is>
@@ -4563,7 +4640,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S169" t="inlineStr">
+      <c r="S169" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #287</t>
         </is>
@@ -4585,6 +4662,7 @@
       </c>
       <c r="F170" s="7" t="n"/>
       <c r="G170" s="8" t="n"/>
+      <c r="S170" s="9" t="n"/>
     </row>
     <row r="171">
       <c r="A171" s="5" t="n">
@@ -4611,6 +4689,7 @@
         <f>IF(E171&gt;1,(1.732*D171*F171)/1000,(D171*F171)/1000)</f>
         <v/>
       </c>
+      <c r="S171" s="9" t="n"/>
     </row>
     <row r="172">
       <c r="A172" s="5" t="n">
@@ -4626,7 +4705,7 @@
       </c>
       <c r="F172" s="7" t="n"/>
       <c r="G172" s="8" t="n"/>
-      <c r="S172" t="inlineStr">
+      <c r="S172" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -4657,7 +4736,7 @@
         <f>IF(E173&gt;1,(1.732*D173*F173)/1000,(D173*F173)/1000)</f>
         <v/>
       </c>
-      <c r="S173" t="inlineStr">
+      <c r="S173" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -4679,6 +4758,7 @@
       </c>
       <c r="F174" s="7" t="n"/>
       <c r="G174" s="8" t="n"/>
+      <c r="S174" s="9" t="n"/>
     </row>
     <row r="175">
       <c r="A175" s="5" t="n">
@@ -4696,6 +4776,7 @@
       </c>
       <c r="F175" s="7" t="n"/>
       <c r="G175" s="8" t="n"/>
+      <c r="S175" s="9" t="n"/>
     </row>
     <row r="176">
       <c r="A176" s="5" t="n">
@@ -4724,6 +4805,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S176" s="9" t="n"/>
     </row>
     <row r="177">
       <c r="A177" s="5" t="n">
@@ -4750,6 +4832,7 @@
         <f>IF(E177&gt;1,(1.732*D177*F177)/1000,(D177*F177)/1000)</f>
         <v/>
       </c>
+      <c r="S177" s="9" t="n"/>
     </row>
     <row r="178">
       <c r="A178" s="5" t="n">
@@ -4765,7 +4848,7 @@
       </c>
       <c r="F178" s="7" t="n"/>
       <c r="G178" s="8" t="n"/>
-      <c r="S178" t="inlineStr">
+      <c r="S178" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4801,7 +4884,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S179" t="inlineStr">
+      <c r="S179" s="9" t="inlineStr">
         <is>
           <t>5 GALLON</t>
         </is>
@@ -4823,6 +4906,7 @@
       </c>
       <c r="F180" s="7" t="n"/>
       <c r="G180" s="8" t="n"/>
+      <c r="S180" s="9" t="n"/>
     </row>
     <row r="181">
       <c r="A181" s="5" t="n">
@@ -4846,7 +4930,7 @@
       <c r="J181" t="n">
         <v>10</v>
       </c>
-      <c r="S181" t="inlineStr">
+      <c r="S181" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #274 #284 #286</t>
         </is>
@@ -4877,6 +4961,7 @@
         <f>IF(E182&gt;1,(1.732*D182*F182)/1000,(D182*F182)/1000)</f>
         <v/>
       </c>
+      <c r="S182" s="9" t="n"/>
     </row>
     <row r="183">
       <c r="A183" s="5" t="n">
@@ -4892,7 +4977,7 @@
       </c>
       <c r="F183" s="7" t="n"/>
       <c r="G183" s="8" t="n"/>
-      <c r="S183" t="inlineStr">
+      <c r="S183" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #287</t>
         </is>
@@ -4914,6 +4999,7 @@
       </c>
       <c r="F184" s="7" t="n"/>
       <c r="G184" s="8" t="n"/>
+      <c r="S184" s="9" t="n"/>
     </row>
     <row r="185">
       <c r="A185" s="5" t="n">
@@ -4931,6 +5017,7 @@
       </c>
       <c r="F185" s="7" t="n"/>
       <c r="G185" s="8" t="n"/>
+      <c r="S185" s="9" t="n"/>
     </row>
     <row r="186">
       <c r="A186" s="5" t="n">
@@ -4946,7 +5033,7 @@
       </c>
       <c r="F186" s="7" t="n"/>
       <c r="G186" s="8" t="n"/>
-      <c r="S186" t="inlineStr">
+      <c r="S186" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -4977,6 +5064,7 @@
         <f>IF(E187&gt;1,(1.732*D187*F187)/1000,(D187*F187)/1000)</f>
         <v/>
       </c>
+      <c r="S187" s="9" t="n"/>
     </row>
     <row r="188">
       <c r="A188" s="5" t="n">
@@ -5003,6 +5091,7 @@
         <f>IF(E188&gt;1,(1.732*D188*F188)/1000,(D188*F188)/1000)</f>
         <v/>
       </c>
+      <c r="S188" s="9" t="n"/>
     </row>
     <row r="189">
       <c r="A189" s="5" t="n">
@@ -5039,6 +5128,7 @@
           <t>1-1/4"</t>
         </is>
       </c>
+      <c r="S189" s="9" t="n"/>
     </row>
     <row r="190">
       <c r="A190" s="5" t="n">
@@ -5056,6 +5146,7 @@
       </c>
       <c r="F190" s="7" t="n"/>
       <c r="G190" s="8" t="n"/>
+      <c r="S190" s="9" t="n"/>
     </row>
     <row r="191">
       <c r="A191" s="5" t="n">
@@ -5090,6 +5181,7 @@
       <c r="J191" t="n">
         <v>10</v>
       </c>
+      <c r="S191" s="9" t="n"/>
     </row>
     <row r="192">
       <c r="A192" s="5" t="n">
@@ -5116,7 +5208,7 @@
         <f>IF(E192&gt;1,(1.732*D192*F192)/1000,(D192*F192)/1000)</f>
         <v/>
       </c>
-      <c r="S192" t="inlineStr">
+      <c r="S192" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5154,7 +5246,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S193" t="inlineStr">
+      <c r="S193" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #287</t>
         </is>
@@ -5176,6 +5268,7 @@
       </c>
       <c r="F194" s="7" t="n"/>
       <c r="G194" s="8" t="n"/>
+      <c r="S194" s="9" t="n"/>
     </row>
     <row r="195">
       <c r="A195" s="5" t="n">
@@ -5193,6 +5286,7 @@
       </c>
       <c r="F195" s="7" t="n"/>
       <c r="G195" s="8" t="n"/>
+      <c r="S195" s="9" t="n"/>
     </row>
     <row r="196">
       <c r="A196" s="5" t="n">
@@ -5208,7 +5302,7 @@
       </c>
       <c r="F196" s="7" t="n"/>
       <c r="G196" s="8" t="n"/>
-      <c r="S196" t="inlineStr">
+      <c r="S196" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #287</t>
         </is>
@@ -5228,7 +5322,7 @@
       </c>
       <c r="F197" s="7" t="n"/>
       <c r="G197" s="8" t="n"/>
-      <c r="S197" t="inlineStr">
+      <c r="S197" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #287</t>
         </is>
@@ -5259,6 +5353,7 @@
         <f>IF(E198&gt;1,(1.732*D198*F198)/1000,(D198*F198)/1000)</f>
         <v/>
       </c>
+      <c r="S198" s="9" t="n"/>
     </row>
     <row r="199">
       <c r="A199" s="5" t="n">
@@ -5276,6 +5371,7 @@
       </c>
       <c r="F199" s="7" t="n"/>
       <c r="G199" s="8" t="n"/>
+      <c r="S199" s="9" t="n"/>
     </row>
     <row r="200">
       <c r="A200" s="5" t="inlineStr">
@@ -5295,6 +5391,7 @@
       </c>
       <c r="F200" s="7" t="n"/>
       <c r="G200" s="8" t="n"/>
+      <c r="S200" s="9" t="n"/>
     </row>
     <row r="201">
       <c r="A201" s="3" t="inlineStr">
@@ -5335,7 +5432,7 @@
       </c>
       <c r="F202" s="7" t="n"/>
       <c r="G202" s="8" t="n"/>
-      <c r="S202" t="inlineStr">
+      <c r="S202" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5355,7 +5452,7 @@
       </c>
       <c r="F203" s="7" t="n"/>
       <c r="G203" s="8" t="n"/>
-      <c r="S203" t="inlineStr">
+      <c r="S203" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -5393,7 +5490,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S204" t="inlineStr">
+      <c r="S204" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -5424,7 +5521,7 @@
         <f>IF(E205&gt;1,(1.732*D205*F205)/1000,(D205*F205)/1000)</f>
         <v/>
       </c>
-      <c r="S205" t="inlineStr">
+      <c r="S205" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5446,6 +5543,7 @@
       </c>
       <c r="F206" s="7" t="n"/>
       <c r="G206" s="8" t="n"/>
+      <c r="S206" s="9" t="n"/>
     </row>
     <row r="207">
       <c r="A207" s="5" t="n">
@@ -5477,7 +5575,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S207" t="inlineStr">
+      <c r="S207" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -5502,7 +5600,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S208" t="inlineStr">
+      <c r="S208" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -5522,7 +5620,7 @@
       </c>
       <c r="F209" s="7" t="n"/>
       <c r="G209" s="8" t="n"/>
-      <c r="S209" t="inlineStr">
+      <c r="S209" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -5544,6 +5642,7 @@
       </c>
       <c r="F210" s="7" t="n"/>
       <c r="G210" s="8" t="n"/>
+      <c r="S210" s="9" t="n"/>
     </row>
     <row r="211">
       <c r="A211" s="5" t="n">
@@ -5561,6 +5660,7 @@
       </c>
       <c r="F211" s="7" t="n"/>
       <c r="G211" s="8" t="n"/>
+      <c r="S211" s="9" t="n"/>
     </row>
     <row r="212">
       <c r="A212" s="5" t="n">
@@ -5576,7 +5676,7 @@
       </c>
       <c r="F212" s="7" t="n"/>
       <c r="G212" s="8" t="n"/>
-      <c r="S212" t="inlineStr">
+      <c r="S212" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -5614,7 +5714,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S213" t="inlineStr">
+      <c r="S213" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -5645,7 +5745,7 @@
         <f>IF(E214&gt;1,(1.732*D214*F214)/1000,(D214*F214)/1000)</f>
         <v/>
       </c>
-      <c r="S214" t="inlineStr">
+      <c r="S214" s="9" t="inlineStr">
         <is>
           <t>WITH DOME</t>
         </is>
@@ -5683,7 +5783,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S215" t="inlineStr">
+      <c r="S215" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -5705,6 +5805,7 @@
       </c>
       <c r="F216" s="7" t="n"/>
       <c r="G216" s="8" t="n"/>
+      <c r="S216" s="9" t="n"/>
     </row>
     <row r="217">
       <c r="A217" s="5" t="n">
@@ -5720,7 +5821,7 @@
       </c>
       <c r="F217" s="7" t="n"/>
       <c r="G217" s="8" t="n"/>
-      <c r="S217" t="inlineStr">
+      <c r="S217" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -5756,7 +5857,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S218" t="inlineStr">
+      <c r="S218" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -5781,7 +5882,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S219" t="inlineStr">
+      <c r="S219" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -5803,6 +5904,7 @@
       </c>
       <c r="F220" s="7" t="n"/>
       <c r="G220" s="8" t="n"/>
+      <c r="S220" s="9" t="n"/>
     </row>
     <row r="221">
       <c r="A221" s="5" t="n">
@@ -5820,6 +5922,7 @@
       </c>
       <c r="F221" s="7" t="n"/>
       <c r="G221" s="8" t="n"/>
+      <c r="S221" s="9" t="n"/>
     </row>
     <row r="222">
       <c r="A222" s="5" t="n">
@@ -5835,7 +5938,7 @@
       </c>
       <c r="F222" s="7" t="n"/>
       <c r="G222" s="8" t="n"/>
-      <c r="S222" t="inlineStr">
+      <c r="S222" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -5855,7 +5958,7 @@
       </c>
       <c r="F223" s="7" t="n"/>
       <c r="G223" s="8" t="n"/>
-      <c r="S223" t="inlineStr">
+      <c r="S223" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -5893,7 +5996,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S224" t="inlineStr">
+      <c r="S224" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -5913,7 +6016,7 @@
       </c>
       <c r="F225" s="7" t="n"/>
       <c r="G225" s="8" t="n"/>
-      <c r="S225" t="inlineStr">
+      <c r="S225" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -5935,6 +6038,7 @@
       </c>
       <c r="F226" s="7" t="n"/>
       <c r="G226" s="8" t="n"/>
+      <c r="S226" s="9" t="n"/>
     </row>
     <row r="227">
       <c r="A227" s="5" t="n">
@@ -5966,7 +6070,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S227" t="inlineStr">
+      <c r="S227" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -5991,7 +6095,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S228" t="inlineStr">
+      <c r="S228" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -6011,7 +6115,7 @@
       </c>
       <c r="F229" s="7" t="n"/>
       <c r="G229" s="8" t="n"/>
-      <c r="S229" t="inlineStr">
+      <c r="S229" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -6033,6 +6137,7 @@
       </c>
       <c r="F230" s="7" t="n"/>
       <c r="G230" s="8" t="n"/>
+      <c r="S230" s="9" t="n"/>
     </row>
     <row r="231">
       <c r="A231" s="5" t="n">
@@ -6050,6 +6155,7 @@
       </c>
       <c r="F231" s="7" t="n"/>
       <c r="G231" s="8" t="n"/>
+      <c r="S231" s="9" t="n"/>
     </row>
     <row r="232">
       <c r="A232" s="5" t="n">
@@ -6065,7 +6171,7 @@
       </c>
       <c r="F232" s="7" t="n"/>
       <c r="G232" s="8" t="n"/>
-      <c r="S232" t="inlineStr">
+      <c r="S232" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -6103,7 +6209,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S233" t="inlineStr">
+      <c r="S233" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #304</t>
         </is>
@@ -6134,6 +6240,7 @@
         <f>IF(E234&gt;1,(1.732*D234*F234)/1000,(D234*F234)/1000)</f>
         <v/>
       </c>
+      <c r="S234" s="9" t="n"/>
     </row>
     <row r="235">
       <c r="A235" s="5" t="n">
@@ -6160,7 +6267,7 @@
         <f>IF(E235&gt;1,(1.732*D235*F235)/1000,(D235*F235)/1000)</f>
         <v/>
       </c>
-      <c r="S235" t="inlineStr">
+      <c r="S235" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER WITH DRINK RAIL GRANITE TOP</t>
         </is>
@@ -6184,6 +6291,7 @@
       </c>
       <c r="F236" s="7" t="n"/>
       <c r="G236" s="8" t="n"/>
+      <c r="S236" s="9" t="n"/>
     </row>
     <row r="237">
       <c r="A237" s="3" t="inlineStr">
@@ -6224,7 +6332,7 @@
       </c>
       <c r="F238" s="7" t="n"/>
       <c r="G238" s="8" t="n"/>
-      <c r="S238" t="inlineStr">
+      <c r="S238" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -6262,7 +6370,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S239" t="inlineStr">
+      <c r="S239" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -6311,7 +6419,7 @@
           <t>(2)1-1/2"</t>
         </is>
       </c>
-      <c r="S240" t="inlineStr">
+      <c r="S240" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6331,7 +6439,7 @@
       </c>
       <c r="F241" s="7" t="n"/>
       <c r="G241" s="8" t="n"/>
-      <c r="S241" t="inlineStr">
+      <c r="S241" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6353,6 +6461,7 @@
       </c>
       <c r="F242" s="7" t="n"/>
       <c r="G242" s="8" t="n"/>
+      <c r="S242" s="9" t="n"/>
     </row>
     <row r="243">
       <c r="A243" s="5" t="n">
@@ -6368,7 +6477,7 @@
       </c>
       <c r="F243" s="7" t="n"/>
       <c r="G243" s="8" t="n"/>
-      <c r="S243" t="inlineStr">
+      <c r="S243" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -6399,6 +6508,7 @@
         <f>IF(E244&gt;1,(1.732*D244*F244)/1000,(D244*F244)/1000)</f>
         <v/>
       </c>
+      <c r="S244" s="9" t="n"/>
     </row>
     <row r="245">
       <c r="A245" s="5" t="n">
@@ -6425,6 +6535,7 @@
         <f>IF(E245&gt;1,(1.732*D245*F245)/1000,(D245*F245)/1000)</f>
         <v/>
       </c>
+      <c r="S245" s="9" t="n"/>
     </row>
     <row r="246">
       <c r="A246" s="5" t="n">
@@ -6442,6 +6553,7 @@
       </c>
       <c r="F246" s="7" t="n"/>
       <c r="G246" s="8" t="n"/>
+      <c r="S246" s="9" t="n"/>
     </row>
     <row r="247">
       <c r="A247" s="5" t="n">
@@ -6459,6 +6571,7 @@
       </c>
       <c r="F247" s="7" t="n"/>
       <c r="G247" s="8" t="n"/>
+      <c r="S247" s="9" t="n"/>
     </row>
     <row r="248">
       <c r="A248" s="5" t="n">
@@ -6485,6 +6598,7 @@
         <f>IF(E248&gt;1,(1.732*D248*F248)/1000,(D248*F248)/1000)</f>
         <v/>
       </c>
+      <c r="S248" s="9" t="n"/>
     </row>
     <row r="249">
       <c r="A249" s="5" t="n">
@@ -6516,7 +6630,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S249" t="inlineStr">
+      <c r="S249" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM#403</t>
         </is>
@@ -6536,7 +6650,7 @@
       </c>
       <c r="F250" s="7" t="n"/>
       <c r="G250" s="8" t="n"/>
-      <c r="S250" t="inlineStr">
+      <c r="S250" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #403</t>
         </is>
@@ -6567,7 +6681,7 @@
         <f>IF(E251&gt;1,(1.732*D251*F251)/1000,(D251*F251)/1000)</f>
         <v/>
       </c>
-      <c r="S251" t="inlineStr">
+      <c r="S251" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -6589,6 +6703,7 @@
       </c>
       <c r="F252" s="7" t="n"/>
       <c r="G252" s="8" t="n"/>
+      <c r="S252" s="9" t="n"/>
     </row>
     <row r="253">
       <c r="A253" s="5" t="n">
@@ -6604,7 +6719,7 @@
       </c>
       <c r="F253" s="7" t="n"/>
       <c r="G253" s="8" t="n"/>
-      <c r="S253" t="inlineStr">
+      <c r="S253" s="9" t="inlineStr">
         <is>
           <t>MOBILE 250LBS</t>
         </is>
@@ -6629,7 +6744,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S254" t="inlineStr">
+      <c r="S254" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6673,7 +6788,7 @@
       <c r="P255" t="n">
         <v>4500</v>
       </c>
-      <c r="S255" t="inlineStr">
+      <c r="S255" s="9" t="inlineStr">
         <is>
           <t>500LBS AIR COOLED</t>
         </is>
@@ -6695,6 +6810,7 @@
       </c>
       <c r="F256" s="7" t="n"/>
       <c r="G256" s="8" t="n"/>
+      <c r="S256" s="9" t="n"/>
     </row>
     <row r="257">
       <c r="A257" s="5" t="n">
@@ -6712,6 +6828,7 @@
       </c>
       <c r="F257" s="7" t="n"/>
       <c r="G257" s="8" t="n"/>
+      <c r="S257" s="9" t="n"/>
     </row>
     <row r="258">
       <c r="A258" s="5" t="n">
@@ -6732,7 +6849,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S258" t="inlineStr">
+      <c r="S258" s="9" t="inlineStr">
         <is>
           <t>1800LBS</t>
         </is>
@@ -6776,7 +6893,7 @@
       <c r="P259" t="n">
         <v>8500</v>
       </c>
-      <c r="S259" t="inlineStr">
+      <c r="S259" s="9" t="inlineStr">
         <is>
           <t>980 LBS AIR-COOLED</t>
         </is>
@@ -6806,7 +6923,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S260" t="inlineStr">
+      <c r="S260" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #418</t>
         </is>
@@ -6836,7 +6953,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S261" t="inlineStr">
+      <c r="S261" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #422</t>
         </is>
@@ -6858,6 +6975,7 @@
       </c>
       <c r="F262" s="7" t="n"/>
       <c r="G262" s="8" t="n"/>
+      <c r="S262" s="9" t="n"/>
     </row>
     <row r="263">
       <c r="A263" s="5" t="n">
@@ -6873,7 +6991,7 @@
       </c>
       <c r="F263" s="7" t="n"/>
       <c r="G263" s="8" t="n"/>
-      <c r="S263" t="inlineStr">
+      <c r="S263" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -6893,7 +7011,7 @@
       </c>
       <c r="F264" s="7" t="n"/>
       <c r="G264" s="8" t="n"/>
-      <c r="S264" t="inlineStr">
+      <c r="S264" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -6931,7 +7049,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S265" t="inlineStr">
+      <c r="S265" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -6953,6 +7071,7 @@
       </c>
       <c r="F266" s="7" t="n"/>
       <c r="G266" s="8" t="n"/>
+      <c r="S266" s="9" t="n"/>
     </row>
     <row r="267">
       <c r="A267" s="5" t="n">
@@ -6970,6 +7089,7 @@
       </c>
       <c r="F267" s="7" t="n"/>
       <c r="G267" s="8" t="n"/>
+      <c r="S267" s="9" t="n"/>
     </row>
     <row r="268">
       <c r="A268" s="5" t="n">
@@ -6996,6 +7116,7 @@
         <f>IF(E268&gt;1,(1.732*D268*F268)/1000,(D268*F268)/1000)</f>
         <v/>
       </c>
+      <c r="S268" s="9" t="n"/>
     </row>
     <row r="269">
       <c r="A269" s="5" t="n">
@@ -7016,7 +7137,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S269" t="inlineStr">
+      <c r="S269" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7052,7 +7173,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S270" t="inlineStr">
+      <c r="S270" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -7072,7 +7193,7 @@
       </c>
       <c r="F271" s="7" t="n"/>
       <c r="G271" s="8" t="n"/>
-      <c r="S271" t="inlineStr">
+      <c r="S271" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -7116,7 +7237,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S272" t="inlineStr">
+      <c r="S272" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -7152,7 +7273,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S273" t="inlineStr">
+      <c r="S273" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7177,7 +7298,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S274" t="inlineStr">
+      <c r="S274" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7208,6 +7329,7 @@
         <f>IF(E275&gt;1,(1.732*D275*F275)/1000,(D275*F275)/1000)</f>
         <v/>
       </c>
+      <c r="S275" s="9" t="n"/>
     </row>
     <row r="276">
       <c r="A276" s="5" t="n">
@@ -7225,6 +7347,7 @@
       </c>
       <c r="F276" s="7" t="n"/>
       <c r="G276" s="8" t="n"/>
+      <c r="S276" s="9" t="n"/>
     </row>
     <row r="277">
       <c r="A277" s="5" t="n">
@@ -7264,7 +7387,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S277" t="inlineStr">
+      <c r="S277" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -7300,7 +7423,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S278" t="inlineStr">
+      <c r="S278" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -7320,7 +7443,7 @@
       </c>
       <c r="F279" s="7" t="n"/>
       <c r="G279" s="8" t="n"/>
-      <c r="S279" t="inlineStr">
+      <c r="S279" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -7340,7 +7463,7 @@
       </c>
       <c r="F280" s="7" t="n"/>
       <c r="G280" s="8" t="n"/>
-      <c r="S280" t="inlineStr">
+      <c r="S280" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7362,6 +7485,7 @@
       </c>
       <c r="F281" s="7" t="n"/>
       <c r="G281" s="8" t="n"/>
+      <c r="S281" s="9" t="n"/>
     </row>
     <row r="282">
       <c r="A282" s="5" t="inlineStr">
@@ -7381,43 +7505,45 @@
       </c>
       <c r="F282" s="7" t="n"/>
       <c r="G282" s="8" t="n"/>
+      <c r="S282" s="9" t="n"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr"/>
     </row>
     <row r="284">
-      <c r="A284" s="9" t="inlineStr">
+      <c r="A284" s="10" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G284" s="10">
+      <c r="G284" s="11">
         <f>SUM(G7:G283)</f>
         <v/>
       </c>
-      <c r="J284" s="10">
+      <c r="J284" s="11">
         <f>SUM(J7:J283)</f>
         <v/>
       </c>
-      <c r="M284" s="10">
+      <c r="M284" s="11">
         <f>SUM(M7:M283)</f>
         <v/>
       </c>
-      <c r="N284" s="10">
+      <c r="N284" s="11">
         <f>SUM(N7:N283)</f>
         <v/>
       </c>
-      <c r="O284" s="10">
+      <c r="O284" s="11">
         <f>SUM(O7:O283)</f>
         <v/>
       </c>
-      <c r="P284" s="10">
+      <c r="P284" s="11">
         <f>SUM(P7:P283)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="3" fitToHeight="0"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>